--- a/datos_inmobiliarios.xlsx
+++ b/datos_inmobiliarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Dormitorios</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Baños</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,68 +481,88 @@
           <t>4</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$ 1,220,000</t>
+          <t>$ 387,188</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Casa en  La Planicie, La Molina, Perú</t>
+          <t>Casa en  La Calera De La Merced, Surquillo, Perú</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,124m2</t>
+          <t>178m2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$ 2,100,000</t>
+          <t>$ 250,000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Casa en  Rinconada Alta, La Molina, Perú</t>
+          <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2,850m2</t>
+          <t>220m2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$ 980,000</t>
+          <t>$ 1,220,000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Casa en  Las Lagunas, La Molina, Perú</t>
+          <t>Casa en  La Planicie, La Molina, Perú</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>461m2</t>
+          <t>1,124m2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -546,20 +571,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$ 3,600,000</t>
+          <t>$ 247,000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Casa en  La Planicie, 1a Etapa, 12, La Molina, Lima, Lima, Peru</t>
+          <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3,694m2</t>
+          <t>220m2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -568,86 +598,106 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>$ 2,100,000</t>
+          <t>$ 225,000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Casa en  Rinconada Alta, La Molina, Perú</t>
+          <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,850m2</t>
+          <t>220m2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>$ 1,700,000</t>
+          <t>$ 2,100,000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Casa en  La Planicie, La Molina, Perú</t>
+          <t>Casa en  Rinconada Alta, La Molina, Perú</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1,508m2</t>
+          <t>2,850m2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>$ 1,200,000</t>
+          <t>$ 980,000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Casa en  La Molina, Lima</t>
+          <t>Casa en  Las Lagunas, La Molina, Perú</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1,051m2</t>
+          <t>461m2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>$ 2,100,000</t>
+          <t>$ 3,600,000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Casa en  Rinconada Alta, La Molina, Perú</t>
+          <t>Casa en  La Planicie, 1a Etapa, 12, La Molina, Lima, Lima, Peru</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2,304m2</t>
+          <t>3,694m2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -656,88 +706,108 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>$ 387,188</t>
+          <t>$ 2,100,000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Casa en  La Calera De La Merced, Surquillo, Perú</t>
+          <t>Casa en  Rinconada Alta, La Molina, Perú</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>178m2</t>
+          <t>2,850m2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>$ 250,000</t>
+          <t>$ 1,700,000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
+          <t>Casa en  La Planicie, La Molina, Perú</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>220m2</t>
+          <t>1,508m2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>$ 247,000</t>
+          <t>$ 1,200,000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
+          <t>Casa en  La Molina, Lima</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>220m2</t>
+          <t>1,051m2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>$ 225,000</t>
+          <t>$ 2,100,000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
+          <t>Casa en  Rinconada Alta, La Molina, Perú</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>220m2</t>
+          <t>2,304m2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -762,6 +832,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -784,6 +859,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -806,204 +886,256 @@
           <t>4</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>$ 330,000</t>
+          <t>$ 52,447.55
+                    destacado</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Casa en  Pando, Lima</t>
+          <t>Casa en  Villa Club 2, Carabayllo, Perú</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>240m2</t>
+          <t>76.24m2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>$ 435,000</t>
+          <t>$ 44,378.7
+                    destacado</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Casa en  Pando, Lima</t>
+          <t>Casa en  Alameda De San Juan, Carabayllo, Perú</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>258m2</t>
+          <t>56.14m2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>$ 52,646.12
+          <t>$ 51,102.74
                     destacado</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Casa en  Villa Club 2, Carabayllo, Perú</t>
+          <t>Casa en  San Pedro, Carabayllo, Perú</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>76.24m2</t>
+          <t>90m2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>$ 51,296.21
-                    destacado</t>
+          <t>$ 340,000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Casa en  San Pedro, Carabayllo, Perú</t>
+          <t>Casa en  Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>90m2</t>
+          <t>156m2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>$ 44,546.71</t>
+          <t>(Precio a consultar)
+                    destacado</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Casa en  Alameda De San Juan, Carabayllo, Perú</t>
+          <t>Casa en  Playa Las Totoritas, Cañete, Lima, Perú</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>56.14m2</t>
+          <t>250m2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>$ 340,000</t>
+          <t>(Precio a consultar)
+                    destacado</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Casa en  Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
+          <t>Casa en  Mala, Cañete</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>156m2</t>
+          <t>200m2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(Precio a consultar)
+          <t>$ 390,000
                     destacado</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Casa en  Playa Las Totoritas, Cañete, Lima, Perú</t>
+          <t>Casa en  Jirón Aragón 178, Pueblo Libre, Perú</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>250m2</t>
+          <t>223m2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(Precio a consultar)
-                    destacado</t>
+          <t>$ 405,000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Casa en  Mala, Cañete</t>
+          <t>Casa en  San Borja, Lima</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>200m2</t>
+          <t>178m2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>$ 405,000</t>
+          <t>$ 1,047,000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Casa en  San Borja, Lima</t>
+          <t>Casa en  Rinconada Baja, Lima</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>178m2</t>
+          <t>1,108m2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1012,65 +1144,80 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>$ 1,047,000</t>
+          <t>$ 560,000
+                    destacado</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Casa en  Rinconada Baja, Lima</t>
+          <t>Casa en  Carlos Monge Medrano, Santiago De Surco, Perú</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1,108m2</t>
+          <t>280m2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>$ 390,000
-                    destacado</t>
+          <t>$ 750,000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Casa en  Jirón Aragón 178, Pueblo Libre, Perú</t>
+          <t>Casa en  Alameda Manuel Prado Ugarteche 400-478, Cuadra 4, Ot. Universidad Nacional Agraria, La Molina, Lima, 15024, Per</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>223m2</t>
+          <t>492m2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>$ 940,000</t>
+          <t>$ 695,000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Casa en  Cerros De Camacho, Santiago De Surco, Lima, Lima, Peru</t>
+          <t>Casa en  Rio De Janeiro 200, La Molina, Perú</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>563m2</t>
+          <t>340m2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1079,46 +1226,55 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>$ 135,000
+          <t>$ 325,000
                     destacado</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Casa en  Pachacamac, Lima, Per</t>
+          <t>Casa en  Alberto Bartón, Santa Catalina, Lima, Perú</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>212.64m2</t>
+          <t>160m2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>$ 625,000
-                    destacado</t>
+          <t>$ 940,000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Casa en  Ricardo Angulo, San Isidro, Lima, Lima, Peru</t>
+          <t>Casa en  Cerros De Camacho, Santiago De Surco, Lima, Lima, Peru</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>360m2</t>
+          <t>563m2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/datos_inmobiliarios.xlsx
+++ b/datos_inmobiliarios.xlsx
@@ -73,19 +73,19 @@
     <t>$ 112,000</t>
   </si>
   <si>
-    <t>$ 52,447.55
+    <t>$ 52,844.04
                     destacado</t>
   </si>
   <si>
-    <t>$ 44,378.7
+    <t>$ 44,714.19
                     destacado</t>
   </si>
   <si>
-    <t>$ 51,102.74
+    <t>$ 340,000</t>
+  </si>
+  <si>
+    <t>$ 51,489.06
                     destacado</t>
-  </si>
-  <si>
-    <t>$ 340,000</t>
   </si>
   <si>
     <t>(Precio a consultar)
@@ -156,12 +156,12 @@
     <t>Casa en  Alameda De San Juan, Carabayllo, Perú</t>
   </si>
   <si>
+    <t>Casa en  Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
+  </si>
+  <si>
     <t>Casa en  San Pedro, Carabayllo, Perú</t>
   </si>
   <si>
-    <t>Casa en  Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
-  </si>
-  <si>
     <t>Casa en  Playa Las Totoritas, Cañete, Lima, Perú</t>
   </si>
   <si>
@@ -234,10 +234,10 @@
     <t>56.14m2</t>
   </si>
   <si>
+    <t>156m2</t>
+  </si>
+  <si>
     <t>90m2</t>
-  </si>
-  <si>
-    <t>156m2</t>
   </si>
   <si>
     <t>250m2</t>
@@ -986,10 +986,10 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1003,10 +1003,10 @@
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">

--- a/datos_inmobiliarios.xlsx
+++ b/datos_inmobiliarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
   <si>
     <t>Precios</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>Baños</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>$ 930,000</t>
+  </si>
+  <si>
+    <t>$ 750,000</t>
+  </si>
+  <si>
+    <t>$ 350,000</t>
   </si>
   <si>
     <t>$ 1,250,000</t>
@@ -106,18 +118,13 @@
     <t>$ 1,047,000</t>
   </si>
   <si>
-    <t>$ 750,000</t>
-  </si>
-  <si>
-    <t>$ 695,000</t>
-  </si>
-  <si>
-    <t>$ 325,000
-                    destacado</t>
-  </si>
-  <si>
-    <t>$ 1,353,450
-                    destacado</t>
+    <t>Casa en  Calle Los Libertadores, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Andrés Aramburú, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Pasaje Santa Rosa 865 Chaclacayo, Los Pinos, Los Halcones, Chaclacayo, Perú</t>
   </si>
   <si>
     <t>Casa en  La Planicie, La Molina, Perú</t>
@@ -180,13 +187,10 @@
     <t>Casa en  Alameda Manuel Prado Ugarteche 400-478, Cuadra 4, Ot. Universidad Nacional Agraria, La Molina, Lima, 15024, Per</t>
   </si>
   <si>
-    <t>Casa en  Rio De Janeiro 200, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Casa en  Alberto Bartón, Santa Catalina, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Casa en  Jirón Paseo De Los Eucaliptos 460, La Molina, Perú</t>
+    <t>300m2</t>
+  </si>
+  <si>
+    <t>360m2</t>
   </si>
   <si>
     <t>1,790m2</t>
@@ -258,13 +262,7 @@
     <t>492m2</t>
   </si>
   <si>
-    <t>340m2</t>
-  </si>
-  <si>
-    <t>160m2</t>
-  </si>
-  <si>
-    <t>1,289m2</t>
+    <t>3</t>
   </si>
   <si>
     <t>4</t>
@@ -276,9 +274,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -289,6 +284,119 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>A.T. : 300 m2, A.C. : 358 m2.
+Dos plantas, 23 años de antigüedad, vista a la calle, en muy buen estado.
+1 sala, comedor, ...</t>
+  </si>
+  <si>
+    <t>A.T. : 360 m2, A.C. : 300 m2.
+Casa como terreno: Zonificación zc, dos plantas, 28 años de antigüedad, vista a la calle, en...</t>
+  </si>
+  <si>
+    <t>A.T. : 300 m2, A.C. : 300 m2.
+Dos plantas, 13 años de antigüedad, vista a la calle, en muy buen estado.
+1 sala, comedor, ...</t>
+  </si>
+  <si>
+    <t>Elegante y amplia residencia moderna, 13 años de construcción y sólo 7 de uso, como nueva. 
+Excelente iluminación natural...</t>
+  </si>
+  <si>
+    <t>SURQUILLO, LA CALERA DE LA MERCED
+VENTA DE CASA,  Bien ubicada, zona Urbana, céntrica y accesible.
+Características importantes...</t>
+  </si>
+  <si>
+    <t>CASA DE PLAYA en CONDOMINIO PLAYA PUNTA CORRIENTES
+Playa PUNTA CORRIENTES km. 122.300 autopista Panamericana Sur
+Calle Las...</t>
+  </si>
+  <si>
+    <t>En la zona más tranquila de La Planicie, primera  etapa, cerca del colegio Villa María. Zona exclusiva enrejada, La Laguna...</t>
+  </si>
+  <si>
+    <t>Se vende casa en punta corrientes.
+Muy buena ubicación con vista hacia la playa</t>
+  </si>
+  <si>
+    <t>Amplia residencia en Rinconada Alta. 4 dormitorios y 7 baños. Dormitorio principal con salida a terraza y vista a los jardines...</t>
+  </si>
+  <si>
+    <t>Hermosa casa casi nueva, impecable en Las Lagunas. 4 dormitorios con aire acondicionado. Dormitorio principal con balcón,...</t>
+  </si>
+  <si>
+    <t>Como terreno. Hermosa residencia en excelente ubicación de la 1a etapa de La Planicie. A precio de terreno. 5 dormitorios...</t>
+  </si>
+  <si>
+    <t>Amplia residencia en Rinconada Alta. 4 dormitorios y 7 baños. Dormitorio principal con salida a terraza.  Amplia sala comedor...</t>
+  </si>
+  <si>
+    <t>Bella residencia en La Planicie, primera etapa. Impecable, como nueva. En total 5 dormitorios con aire acondicionado. 2 dormitorios...</t>
+  </si>
+  <si>
+    <t>Hermosa residencia en Residencial Monterrico (por Camacho). 700m2 techados. 3 dormitorios en el primer piso, uno con baño...</t>
+  </si>
+  <si>
+    <t>Hermosa residencia en Rinconada Alta. 5 amplios dormitorios con baño incorporado. Hall de ingreso, sala, comedor, comedor...</t>
+  </si>
+  <si>
+    <t>¡MÚDATE A PUEBLO LIBRE!
+En venta amplia y cómoda vivienda de 3 pisos en Pueblo Libre, con fácil acceso a avenidas principales...</t>
+  </si>
+  <si>
+    <t>Vendo linda casa en esquina de 429.54m2 de terreno, en calle Andreas Vesalio, San Borja, muy bien ubicada.
+La casa tiene ...</t>
+  </si>
+  <si>
+    <t>VENDO CASA EN LA UNIDAD VECINAL DEL RIMAC, UBICADA FRENTE A PLAZA VEA DE LA AV. ALCAZAR, MUY CENTRICA. 
+LA CASA TIENE 3 PISOS...</t>
+  </si>
+  <si>
+    <t>HERMOSA CASA EN VENTA, área de terreno de 76.25 m² con excelente distribución e iluminación, seguridad las 24 horas del día...</t>
+  </si>
+  <si>
+    <t>Hermosa Casa en Venta
+CASA DE DOS PISOS, EN VENTA UBICADO EN EL EXTERIOR DE UN CONDOMINIO 28.07m² construido aproximadamente...</t>
+  </si>
+  <si>
+    <t>Venta de Casa. ZONA CERRADA SEGURA VIGILANCIA PRIVADA FRENTE A PARQUE
+Casa de 4 pisos ubicada en Calle Las Limas URB. CERES...</t>
+  </si>
+  <si>
+    <t>CASA DE TRES PISOS, EN VENTA UBICADO EN EL EXTERIOR DE UN CONDOMINIO 90m² construido aproximadamente, con excelente distribución...</t>
+  </si>
+  <si>
+    <t>Se vende casa de playa en La Macarena - Totoritas
+la casa consta de dos pisos bien distribuidos.
+Primer piso:
+Linda entrada...</t>
+  </si>
+  <si>
+    <t>Se Vende Casa en Playa Las Totoritas
+La casa se encuentra unicada  en la Calle 4 a media cuadra del malecón.
+Consta de dos...</t>
+  </si>
+  <si>
+    <t>En venta casa de tres pisos con un área de terreno de 223 m2 con una privilegiada ubicación, perfecta oportunidad para constructoras...</t>
+  </si>
+  <si>
+    <t>A.T. : 280 m2, A.C. : 280 m2.
+2 pisos.
+Aire acondicionado, tres plantas, 45 años de antigüedad, vista a parque, en muy buen...</t>
+  </si>
+  <si>
+    <t>VENTA CASA SAN BORJA
+Ubicadísima, acogedora, segura e iluminada !!  - Fácil acceso a transporte.
+Venta de casa de 2 Pisos...</t>
+  </si>
+  <si>
+    <t>UBICADISIMA CASA EN EL CORAZON DE LA ESTANCIA LA MOLINA !!
+Seguridad 24 horas. Cámaras en todas la urbanizacion.  Garitas...</t>
+  </si>
+  <si>
+    <t>PRECIOSA CASA MINIMALISTA. CONDOMINIO PORTADA DEL HARAS, FINOS ACABADOS, TECHOS ALTOS EXCELENTE DISTRIBUCIÓN. FULL SEGURIDAD...</t>
   </si>
 </sst>
 </file>
@@ -646,13 +754,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,10 +776,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -680,15 +791,18 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -697,72 +811,84 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -770,67 +896,79 @@
       <c r="E7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
       <c r="D9" t="s">
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -838,345 +976,408 @@
       <c r="E11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
       </c>
       <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
       <c r="E17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
         <v>84</v>
       </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
       <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
+      <c r="F31" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/datos_inmobiliarios.xlsx
+++ b/datos_inmobiliarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="640">
   <si>
     <t>Precios</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Ubicaciones</t>
   </si>
   <si>
-    <t>Áreas</t>
+    <t>Área</t>
   </si>
   <si>
     <t>Dormitorios</t>
@@ -34,31 +34,31 @@
     <t>Descripcion</t>
   </si>
   <si>
+    <t>$ 350,000</t>
+  </si>
+  <si>
     <t>$ 930,000</t>
   </si>
   <si>
     <t>$ 750,000</t>
   </si>
   <si>
-    <t>$ 350,000</t>
+    <t>$ 387,188</t>
+  </si>
+  <si>
+    <t>$ 250,000</t>
+  </si>
+  <si>
+    <t>$ 247,000</t>
+  </si>
+  <si>
+    <t>$ 225,000</t>
   </si>
   <si>
     <t>$ 1,250,000</t>
   </si>
   <si>
-    <t>$ 387,188</t>
-  </si>
-  <si>
-    <t>$ 250,000</t>
-  </si>
-  <si>
     <t>$ 1,220,000</t>
-  </si>
-  <si>
-    <t>$ 247,000</t>
-  </si>
-  <si>
-    <t>$ 225,000</t>
   </si>
   <si>
     <t>$ 2,100,000</t>
@@ -93,13 +93,13 @@
                     destacado</t>
   </si>
   <si>
-    <t>$ 340,000</t>
-  </si>
-  <si>
     <t>$ 51,489.06
                     destacado</t>
   </si>
   <si>
+    <t>$ 340,000</t>
+  </si>
+  <si>
     <t>(Precio a consultar)
                     destacado</t>
   </si>
@@ -108,34 +108,425 @@
                     destacado</t>
   </si>
   <si>
+    <t>$ 699,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 658,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 1,353,450
+                    destacado</t>
+  </si>
+  <si>
     <t>$ 560,000
                     destacado</t>
   </si>
   <si>
+    <t>$ 253,000
+                    destacado</t>
+  </si>
+  <si>
     <t>$ 405,000</t>
   </si>
   <si>
+    <t>$ 790,000</t>
+  </si>
+  <si>
     <t>$ 1,047,000</t>
   </si>
   <si>
+    <t>$ 940,000</t>
+  </si>
+  <si>
+    <t>$ 695,000</t>
+  </si>
+  <si>
+    <t>$ 325,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 253,900</t>
+  </si>
+  <si>
+    <t>$ 625,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 680,000</t>
+  </si>
+  <si>
+    <t>$ 570,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 600,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 490,000</t>
+  </si>
+  <si>
+    <t>$ 1,000,000</t>
+  </si>
+  <si>
+    <t>$ 500,000</t>
+  </si>
+  <si>
+    <t>$ 580,000</t>
+  </si>
+  <si>
+    <t>$ 410,000</t>
+  </si>
+  <si>
+    <t>$ 890,000</t>
+  </si>
+  <si>
+    <t>$ 720,000</t>
+  </si>
+  <si>
+    <t>$ 399,500</t>
+  </si>
+  <si>
+    <t>$ 1,480,000</t>
+  </si>
+  <si>
+    <t>$ 800,000</t>
+  </si>
+  <si>
+    <t>$ 615,000</t>
+  </si>
+  <si>
+    <t>$ 799,000</t>
+  </si>
+  <si>
+    <t>$ 475,000</t>
+  </si>
+  <si>
+    <t>$ 579,800
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 540,000</t>
+  </si>
+  <si>
+    <t>$ 595,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 1,400,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 630,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 389,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 420,000</t>
+  </si>
+  <si>
+    <t>$ 260,000</t>
+  </si>
+  <si>
+    <t>$ 415,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 97,000</t>
+  </si>
+  <si>
+    <t>$ 590,000</t>
+  </si>
+  <si>
+    <t>$ 645,000</t>
+  </si>
+  <si>
+    <t>$ 549,000</t>
+  </si>
+  <si>
+    <t>$ 465,000</t>
+  </si>
+  <si>
+    <t>$ 520,000</t>
+  </si>
+  <si>
+    <t>$ 1,260,000</t>
+  </si>
+  <si>
+    <t>$ 675,000</t>
+  </si>
+  <si>
+    <t>$ 360,000</t>
+  </si>
+  <si>
+    <t>$ 650,000</t>
+  </si>
+  <si>
+    <t>$ 330,000</t>
+  </si>
+  <si>
+    <t>$ 435,000</t>
+  </si>
+  <si>
+    <t>$ 950,000</t>
+  </si>
+  <si>
+    <t>$ 825,000</t>
+  </si>
+  <si>
+    <t>$ 1,820,000</t>
+  </si>
+  <si>
+    <t>$ 470,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 2,500,000</t>
+  </si>
+  <si>
+    <t>$ 690,000</t>
+  </si>
+  <si>
+    <t>$ 190,000</t>
+  </si>
+  <si>
+    <t>$ 898,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 998,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 320,000</t>
+  </si>
+  <si>
+    <t>$ 399,000</t>
+  </si>
+  <si>
+    <t>$ 2,000,000</t>
+  </si>
+  <si>
+    <t>$ 2,900,000</t>
+  </si>
+  <si>
+    <t>$ 1,290,000</t>
+  </si>
+  <si>
+    <t>$ 240,000</t>
+  </si>
+  <si>
+    <t>$ 215,000</t>
+  </si>
+  <si>
+    <t>$ 230,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 618,000</t>
+  </si>
+  <si>
+    <t>$ 188,000</t>
+  </si>
+  <si>
+    <t>$ 55,000</t>
+  </si>
+  <si>
+    <t>$ 440,000</t>
+  </si>
+  <si>
+    <t>$ 1,700,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 354,000</t>
+  </si>
+  <si>
+    <t>$ 1,950,000</t>
+  </si>
+  <si>
+    <t>$ 620,000</t>
+  </si>
+  <si>
+    <t>$ 795,000</t>
+  </si>
+  <si>
+    <t>$ 640,000</t>
+  </si>
+  <si>
+    <t>$ 370,000</t>
+  </si>
+  <si>
+    <t>$ 500,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 1,400,000</t>
+  </si>
+  <si>
+    <t>$ 3,800,000</t>
+  </si>
+  <si>
+    <t>$ 1,500,000</t>
+  </si>
+  <si>
+    <t>$ 600,000</t>
+  </si>
+  <si>
+    <t>$ 315,000</t>
+  </si>
+  <si>
+    <t>$ 2,300,000</t>
+  </si>
+  <si>
+    <t>$ 900,000</t>
+  </si>
+  <si>
+    <t>$ 670,000</t>
+  </si>
+  <si>
+    <t>$ 396,000</t>
+  </si>
+  <si>
+    <t>$ 1,850,000</t>
+  </si>
+  <si>
+    <t>$ 449,000</t>
+  </si>
+  <si>
+    <t>$ 178,000</t>
+  </si>
+  <si>
+    <t>(Precio a consultar)</t>
+  </si>
+  <si>
+    <t>$ 675,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 495,000</t>
+  </si>
+  <si>
+    <t>$ 168,500</t>
+  </si>
+  <si>
+    <t>$ 1,190,000</t>
+  </si>
+  <si>
+    <t>$ 660,000</t>
+  </si>
+  <si>
+    <t>$ 198,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 123,000</t>
+  </si>
+  <si>
+    <t>$ 1,389,000</t>
+  </si>
+  <si>
+    <t>$ 265,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 730,000</t>
+  </si>
+  <si>
+    <t>$ 560,000</t>
+  </si>
+  <si>
+    <t>$ 195,000</t>
+  </si>
+  <si>
+    <t>$ 3,112,840</t>
+  </si>
+  <si>
+    <t>$ 1,090,000</t>
+  </si>
+  <si>
+    <t>$ 449,500</t>
+  </si>
+  <si>
+    <t>$ 499,000</t>
+  </si>
+  <si>
+    <t>$ 1,490,000</t>
+  </si>
+  <si>
+    <t>$ 2,190,000</t>
+  </si>
+  <si>
+    <t>$ 1,350,000</t>
+  </si>
+  <si>
+    <t>$ 550,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 1,150,000</t>
+  </si>
+  <si>
+    <t>$ 535,200
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 475,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 425,000</t>
+  </si>
+  <si>
+    <t>$ 1,697,000</t>
+  </si>
+  <si>
+    <t>$ 609,000</t>
+  </si>
+  <si>
+    <t>$ 300,000</t>
+  </si>
+  <si>
+    <t>$ 1,180,000</t>
+  </si>
+  <si>
+    <t>$ 580,000
+                    destacado</t>
+  </si>
+  <si>
+    <t>$ 120,000</t>
+  </si>
+  <si>
+    <t>$ 314,000</t>
+  </si>
+  <si>
+    <t>$ 92,300
+                    destacado</t>
+  </si>
+  <si>
+    <t>Casa en  Pasaje Santa Rosa 865 Chaclacayo, Los Pinos, Los Halcones, Chaclacayo, Perú</t>
+  </si>
+  <si>
     <t>Casa en  Calle Los Libertadores, San Isidro, Perú</t>
   </si>
   <si>
     <t>Casa en  Av. Andrés Aramburú, San Isidro, Perú</t>
   </si>
   <si>
-    <t>Casa en  Pasaje Santa Rosa 865 Chaclacayo, Los Pinos, Los Halcones, Chaclacayo, Perú</t>
+    <t>Casa en  La Calera De La Merced, Surquillo, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
   </si>
   <si>
     <t>Casa en  La Planicie, La Molina, Perú</t>
   </si>
   <si>
-    <t>Casa en  La Calera De La Merced, Surquillo, Perú</t>
-  </si>
-  <si>
-    <t>Casa en  Punta Corrientes, Cerro Azul, Perú</t>
-  </si>
-  <si>
     <t>Casa en  Rinconada Alta, La Molina, Perú</t>
   </si>
   <si>
@@ -163,12 +554,12 @@
     <t>Casa en  Alameda De San Juan, Carabayllo, Perú</t>
   </si>
   <si>
+    <t>Casa en  San Pedro, Carabayllo, Perú</t>
+  </si>
+  <si>
     <t>Casa en  Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
   </si>
   <si>
-    <t>Casa en  San Pedro, Carabayllo, Perú</t>
-  </si>
-  <si>
     <t>Casa en  Playa Las Totoritas, Cañete, Lima, Perú</t>
   </si>
   <si>
@@ -178,30 +569,438 @@
     <t>Casa en  Jirón Aragón 178, Pueblo Libre, Perú</t>
   </si>
   <si>
+    <t>Casa en  Santiago De Surco, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Rinconada Baja, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Paseo De Los Eucaliptos 460, La Molina, Perú</t>
+  </si>
+  <si>
     <t>Casa en  Carlos Monge Medrano, Santiago De Surco, Perú</t>
   </si>
   <si>
-    <t>Casa en  Rinconada Baja, Lima</t>
+    <t>Casa en  Santa Cruz De Flores, Cañete, Lima, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Cerros De Camacho, Santiago De Surco, Lima, Lima, Peru</t>
   </si>
   <si>
     <t>Casa en  Alameda Manuel Prado Ugarteche 400-478, Cuadra 4, Ot. Universidad Nacional Agraria, La Molina, Lima, 15024, Per</t>
   </si>
   <si>
+    <t>Casa en  Rio De Janeiro 200, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Alberto Bartón, Santa Catalina, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Ricardo Angulo, San Isidro, Lima, Lima, Peru</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Coronel Enrique Campos, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Bahía 200-298, Cuadra 2, Co. La Molina Real, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón El Mástil 515-577, Cuadra 5, Ur. Las Lagunas De La Molina Etapa Iii, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Daniel Urrea 251, Chorrillos, Lima 15063, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Baltazar La Torre 3, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Urb California, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Neiser Llacsa Arce, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Campo Verde 101-199, Cuadra 1, Ur. Campo Verde, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>Casa en  El Haras 5, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Las Dalias 338-368, Cuadra 3, Ur. Valle Hermoso Residencial Etapa Ii, Santiago De Surco, Lima, 15023, Per</t>
+  </si>
+  <si>
+    <t>Casa en  La Floristería, Jirón Simón Salguero, Ur. Residencial El Rosal, Santiago De Surco, Lima, 15048, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Juan De Aliaga 400, Magdalena Del Mar, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle General Silva 685, Cuadra 6, Ur. San Antonio, Miraflores, Lima, 15047, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida San Borja Norte 1234, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  José María Quiroga 339, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Valle Hermoso, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Rinconada Del Lago 915, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Las Casuarinas, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Viña Del Mar 131, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  El Sol De La Molina, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Las Caobas, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Pastor Sevilla, Chorrillos, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle German Schreiber, Avenida Dos De Mayo, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle German Schreiber Gulsmanco 210, Calle German Schreiber Gulsmanco, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Castilla La Vieja, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Santa María, Huaura, Lima, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Cercado De Lima, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Maranga, San Miguel, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Cayaltí 241-279, Cuadra 2, Ur. Centro Comercial De Monterrico, Santiago De Surco, Lima, 15023, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Electricistas 150, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Pulla De Raymondi, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Juan De La Fuente 905, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Mala, Cañete, Lima, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Las Fresas, Lima 15048, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  La Encantada 130, Rinconada Del Lago, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Paseo La Castellana 356, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Pando, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Pucusana, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Sevilla 115, Miraflores, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  La Molina Vieja, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Pachacamac, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Pedro De Osma 417, Barranco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Chorrillos, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Ivan Huerta, Cercado De Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Madreselva, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Surquillo, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Los Alamos 183, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle General La Fuente 165, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Magdalena Del Mar, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Los Molles 267, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Batalla De Junin 300, Barranco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Belén, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  San Martin De Porres, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Geronimo De Aliaga Norte, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Cloegio Pamer, Avenida Los Alameda Horizontes 710, Cuadra 7, Ur. Los Cedros De Villa Etapa Iv, Chorrillos, Lima, 15067, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Maximiliano Carranza 856-898, Cuadra 8, Ur. San Juan Sector D, San Juan De Miraflores, Lima, 15801, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Manuel Prado Ugarteche, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  San Juan De Miraflores, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Eduardo H. La Torre Villamonte 205, Urb El Rosal, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Ancon, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Alameda El Triangulo, Urb Las Brisas De Villa, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Pedro Canga, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Los Canarios, La Pradera, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Pueblo Libre, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Los Sauces, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Los Pinos, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Arias Araguez 601-699, Cuadra 6, Ur. San Antonio, Miraflores, Lima, 15047, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Aurelio Fernandez Concha, Miraflores, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Pedro De Osma, Barranco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Cerezos 229, Micaela Bastidas, Los Olivos, Lima Province, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  El Paraiso, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Maranga, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Valle Riestra, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jr. República Del Líbano, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  El Cascajal, Jirón El Cascajal, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Los Alamos 381, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Ricardo Palma, Urb Covima, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  El Olivar Desarrolladora, Raymundo Morales De La Torre, San Isidro, Lima, Peru</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Batallón Callao Norte, Cercado De Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Santa Cruz, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Cancha De Tennis. Urb.el Sol De La Molina Iii Etapa, Calle Las Cascadas Del Sol, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Conde De La Vega Del Ren, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Gral. Francisco Valle Riestra 595, San Isidro 15076, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  León De La Fuente, Magdalena Del Mar, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Manuel Olguín, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Arica, Miraflores, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Playa Las Lomas, Cerro Azul, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Alejandro Iglesias 725, Chorrillos, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Purus 170, Rímac, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  La Planicie, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Angélica Palma 184, San Miguel, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Ayacucho 1429, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Villa El Salvador, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  El Monticulo, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Playa La Encontrada, Asia, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Jose Granda, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Daniel Carrión 585, Magdalena Del Mar, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Pasaje Los Lirios 192, Lurigancho-chosica, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Via Láctea 205, Santiago De Surco 15023, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Batallon Tarma Surco, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Virgen Del Carmen, Ur. Pro Etapa Vii, San Martín De Porres, Lima, 15113, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Jiron Cerro San Francisco 522 Las Casuarinas Surco, Jirón Cerro San Francisco, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle José Dionisio Anchorena, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Carlos Graña, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Club De Regatas "lima" · Filial La Cantuta, Circunvalacion, Lurigancho-chosica, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Bartolomé De Las Casas 400-488, Cuadra 4, Ur. Pablo Canepa, La Molina, Lima, 15012, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Choquehuanca, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Juan Dellepiani &amp; Calle Augusto Bolognesi, Distrito De San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  La Planicie, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Paul Harris, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Pasaje Osa Menor, Ur. La Alborada, Santiago De Surco, Lima, 15038, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Los Manzanos 315, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  San Antonio, Lima</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Caminos Del Inca, Cuadra 10, Ur. Las Gardenias, Santiago De Surco, Lima, 15038, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Los Frutales, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Juan De La Torre 200-222, Cuadra 2, Ur. Valle Hermoso Este, Santiago De Surco, Lima, 15023, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Tambo Viejo, Cieneguilla, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Urb Paso Chico, Paseo Paso Chico, Lurín, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  El Horizonte 366, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Ciro Alegría, Calle Ciro Alegría, Miraflores, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Jirón Viña Lariena 200, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Ca. John Hassinger, Cercado De Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Av. Manuel Villarán 184, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Calle El Montículo 100-198, Cuadra 1, Ur. La Planicie, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>Casa en  Calle Antonia De Castro 131, Carabayllo, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Urb Rinconada Alta Etapa 2, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  M2, San Juan De Lurigancho 15427, Perú</t>
+  </si>
+  <si>
+    <t>Casa en  Avenida Guardia Republicana, Ur. Ventura Rossi, Rimac, Lima, 15094, Per</t>
+  </si>
+  <si>
     <t>300m2</t>
   </si>
   <si>
     <t>360m2</t>
   </si>
   <si>
+    <t>178m2</t>
+  </si>
+  <si>
+    <t>220m2</t>
+  </si>
+  <si>
     <t>1,790m2</t>
   </si>
   <si>
-    <t>178m2</t>
-  </si>
-  <si>
-    <t>220m2</t>
-  </si>
-  <si>
     <t>1,124m2</t>
   </si>
   <si>
@@ -238,12 +1037,12 @@
     <t>56.14m2</t>
   </si>
   <si>
+    <t>90m2</t>
+  </si>
+  <si>
     <t>156m2</t>
   </si>
   <si>
-    <t>90m2</t>
-  </si>
-  <si>
     <t>250m2</t>
   </si>
   <si>
@@ -253,21 +1052,363 @@
     <t>223m2</t>
   </si>
   <si>
+    <t>400m2</t>
+  </si>
+  <si>
+    <t>1,289m2</t>
+  </si>
+  <si>
     <t>280m2</t>
   </si>
   <si>
+    <t>679m2</t>
+  </si>
+  <si>
     <t>1,108m2</t>
   </si>
   <si>
+    <t>563m2</t>
+  </si>
+  <si>
     <t>492m2</t>
   </si>
   <si>
+    <t>340m2</t>
+  </si>
+  <si>
+    <t>160m2</t>
+  </si>
+  <si>
+    <t>290m2</t>
+  </si>
+  <si>
+    <t>240m2</t>
+  </si>
+  <si>
+    <t>365.2m2</t>
+  </si>
+  <si>
+    <t>1,500m2</t>
+  </si>
+  <si>
+    <t>202m2</t>
+  </si>
+  <si>
+    <t>600m2</t>
+  </si>
+  <si>
+    <t>423m2</t>
+  </si>
+  <si>
+    <t>481m2</t>
+  </si>
+  <si>
+    <t>480m2</t>
+  </si>
+  <si>
+    <t>316m2</t>
+  </si>
+  <si>
+    <t>595m2</t>
+  </si>
+  <si>
+    <t>398m2</t>
+  </si>
+  <si>
+    <t>342m2</t>
+  </si>
+  <si>
+    <t>592m2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1,180m2</t>
+  </si>
+  <si>
+    <t>1,064m2</t>
+  </si>
+  <si>
+    <t>332m2</t>
+  </si>
+  <si>
+    <t>281m2</t>
+  </si>
+  <si>
+    <t>269m2</t>
+  </si>
+  <si>
+    <t>140m2</t>
+  </si>
+  <si>
+    <t>271m2</t>
+  </si>
+  <si>
+    <t>136m2</t>
+  </si>
+  <si>
+    <t>380,000m2</t>
+  </si>
+  <si>
+    <t>409m2</t>
+  </si>
+  <si>
+    <t>378.01m2</t>
+  </si>
+  <si>
+    <t>312m2</t>
+  </si>
+  <si>
+    <t>303m2</t>
+  </si>
+  <si>
+    <t>70,000m2</t>
+  </si>
+  <si>
+    <t>253m2</t>
+  </si>
+  <si>
+    <t>327m2</t>
+  </si>
+  <si>
+    <t>258m2</t>
+  </si>
+  <si>
+    <t>30,000m2</t>
+  </si>
+  <si>
+    <t>267m2</t>
+  </si>
+  <si>
+    <t>1,125m2</t>
+  </si>
+  <si>
+    <t>4,333m2</t>
+  </si>
+  <si>
+    <t>292m2</t>
+  </si>
+  <si>
+    <t>847m2</t>
+  </si>
+  <si>
+    <t>415m2</t>
+  </si>
+  <si>
+    <t>110m2</t>
+  </si>
+  <si>
+    <t>376m2</t>
+  </si>
+  <si>
+    <t>391m2</t>
+  </si>
+  <si>
+    <t>70m2</t>
+  </si>
+  <si>
+    <t>1,204m2</t>
+  </si>
+  <si>
+    <t>951m2</t>
+  </si>
+  <si>
+    <t>498m2</t>
+  </si>
+  <si>
+    <t>111.67m2</t>
+  </si>
+  <si>
+    <t>362m2</t>
+  </si>
+  <si>
+    <t>236m2</t>
+  </si>
+  <si>
+    <t>225m2</t>
+  </si>
+  <si>
+    <t>1,132m2</t>
+  </si>
+  <si>
+    <t>540m2</t>
+  </si>
+  <si>
+    <t>344m2</t>
+  </si>
+  <si>
+    <t>550m2</t>
+  </si>
+  <si>
+    <t>1,341m2</t>
+  </si>
+  <si>
+    <t>1,000m2</t>
+  </si>
+  <si>
+    <t>368m2</t>
+  </si>
+  <si>
+    <t>497m2</t>
+  </si>
+  <si>
+    <t>247m2</t>
+  </si>
+  <si>
+    <t>512m2</t>
+  </si>
+  <si>
+    <t>507m2</t>
+  </si>
+  <si>
+    <t>500m2</t>
+  </si>
+  <si>
+    <t>513m2</t>
+  </si>
+  <si>
+    <t>1,200m2</t>
+  </si>
+  <si>
+    <t>1,250m2</t>
+  </si>
+  <si>
+    <t>352m2</t>
+  </si>
+  <si>
+    <t>505m2</t>
+  </si>
+  <si>
+    <t>628m2</t>
+  </si>
+  <si>
+    <t>367m2</t>
+  </si>
+  <si>
+    <t>1,050m2</t>
+  </si>
+  <si>
+    <t>383m2</t>
+  </si>
+  <si>
+    <t>305m2</t>
+  </si>
+  <si>
+    <t>410m2</t>
+  </si>
+  <si>
+    <t>800m2</t>
+  </si>
+  <si>
+    <t>298m2</t>
+  </si>
+  <si>
+    <t>261m2</t>
+  </si>
+  <si>
+    <t>335m2</t>
+  </si>
+  <si>
+    <t>700m2</t>
+  </si>
+  <si>
+    <t>100m2</t>
+  </si>
+  <si>
+    <t>359.46m2</t>
+  </si>
+  <si>
+    <t>504.75m2</t>
+  </si>
+  <si>
+    <t>425m2</t>
+  </si>
+  <si>
+    <t>168m2</t>
+  </si>
+  <si>
+    <t>230m2</t>
+  </si>
+  <si>
+    <t>1,198m2</t>
+  </si>
+  <si>
+    <t>347m2</t>
+  </si>
+  <si>
+    <t>723m2</t>
+  </si>
+  <si>
+    <t>219m2</t>
+  </si>
+  <si>
+    <t>447m2</t>
+  </si>
+  <si>
+    <t>427m2</t>
+  </si>
+  <si>
+    <t>1,700m2</t>
+  </si>
+  <si>
+    <t>252m2</t>
+  </si>
+  <si>
+    <t>602m2</t>
+  </si>
+  <si>
+    <t>448m2</t>
+  </si>
+  <si>
+    <t>318m2</t>
+  </si>
+  <si>
+    <t>310m2</t>
+  </si>
+  <si>
+    <t>1,740m2</t>
+  </si>
+  <si>
+    <t>1,150m2</t>
+  </si>
+  <si>
+    <t>1,650m2</t>
+  </si>
+  <si>
+    <t>428m2</t>
+  </si>
+  <si>
+    <t>183m2</t>
+  </si>
+  <si>
+    <t>153m2</t>
+  </si>
+  <si>
+    <t>630m2</t>
+  </si>
+  <si>
+    <t>2,500m2</t>
+  </si>
+  <si>
+    <t>180m2</t>
+  </si>
+  <si>
+    <t>1,663m2</t>
+  </si>
+  <si>
+    <t>463.49m2</t>
+  </si>
+  <si>
+    <t>122m2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -277,13 +1418,27 @@
     <t>2</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A.T. : 300 m2, A.C. : 300 m2.
+Dos plantas, 13 años de antigüedad, vista a la calle, en muy buen estado.
+1 sala, comedor, ...</t>
   </si>
   <si>
     <t>A.T. : 300 m2, A.C. : 358 m2.
@@ -295,15 +1450,6 @@
 Casa como terreno: Zonificación zc, dos plantas, 28 años de antigüedad, vista a la calle, en...</t>
   </si>
   <si>
-    <t>A.T. : 300 m2, A.C. : 300 m2.
-Dos plantas, 13 años de antigüedad, vista a la calle, en muy buen estado.
-1 sala, comedor, ...</t>
-  </si>
-  <si>
-    <t>Elegante y amplia residencia moderna, 13 años de construcción y sólo 7 de uso, como nueva. 
-Excelente iluminación natural...</t>
-  </si>
-  <si>
     <t>SURQUILLO, LA CALERA DE LA MERCED
 VENTA DE CASA,  Bien ubicada, zona Urbana, céntrica y accesible.
 Características importantes...</t>
@@ -314,13 +1460,17 @@
 Calle Las...</t>
   </si>
   <si>
-    <t>En la zona más tranquila de La Planicie, primera  etapa, cerca del colegio Villa María. Zona exclusiva enrejada, La Laguna...</t>
-  </si>
-  <si>
     <t>Se vende casa en punta corrientes.
 Muy buena ubicación con vista hacia la playa</t>
   </si>
   <si>
+    <t>Elegante y amplia residencia moderna, 13 años de construcción y sólo 7 de uso, como nueva. 
+Excelente iluminación natural...</t>
+  </si>
+  <si>
+    <t>En la zona más tranquila de La Planicie, primera  etapa, cerca del colegio Villa María. Zona exclusiva enrejada, La Laguna...</t>
+  </si>
+  <si>
     <t>Amplia residencia en Rinconada Alta. 4 dormitorios y 7 baños. Dormitorio principal con salida a terraza y vista a los jardines...</t>
   </si>
   <si>
@@ -361,11 +1511,11 @@
 CASA DE DOS PISOS, EN VENTA UBICADO EN EL EXTERIOR DE UN CONDOMINIO 28.07m² construido aproximadamente...</t>
   </si>
   <si>
+    <t>CASA DE TRES PISOS, EN VENTA UBICADO EN EL EXTERIOR DE UN CONDOMINIO 90m² construido aproximadamente, con excelente distribución...</t>
+  </si>
+  <si>
     <t>Venta de Casa. ZONA CERRADA SEGURA VIGILANCIA PRIVADA FRENTE A PARQUE
 Casa de 4 pisos ubicada en Calle Las Limas URB. CERES...</t>
-  </si>
-  <si>
-    <t>CASA DE TRES PISOS, EN VENTA UBICADO EN EL EXTERIOR DE UN CONDOMINIO 90m² construido aproximadamente, con excelente distribución...</t>
   </si>
   <si>
     <t>Se vende casa de playa en La Macarena - Totoritas
@@ -382,21 +1532,640 @@
     <t>En venta casa de tres pisos con un área de terreno de 223 m2 con una privilegiada ubicación, perfecta oportunidad para constructoras...</t>
   </si>
   <si>
+    <t>Hermosa casa, totalmente remodelada! 
+La casa tiene 03 pisos con un amplio jardín y terraza. 
+Excelente ubicación!!! 
+A dos...</t>
+  </si>
+  <si>
+    <t>LINDA CASA EN VENTA! A UN PASO DEL CENTRO COMERCIAL MOLINA PLAZA 
+AT. 300M2 AC. 268M2 
+PRECIO $658,000 NEGOCIABLE!! 
+Casa...</t>
+  </si>
+  <si>
+    <t>Amplia casa de 1,289m2 en Camacho - La Molina 
+Calle Paseo Los Eucaliptos Nro 460, Urb. Camacho 
+Alt. Cuadra 3 y 4 de la ...</t>
+  </si>
+  <si>
     <t>A.T. : 280 m2, A.C. : 280 m2.
 2 pisos.
 Aire acondicionado, tres plantas, 45 años de antigüedad, vista a parque, en muy buen...</t>
   </si>
   <si>
+    <t>VENDO CASA DE CAMPO AMOBLADA CON PISCINA EN AZPITIA. 
+Mudate Yaaaaa
+Ref. La Casa de la Cremolada y Av. Buenaventura, Restaurant...</t>
+  </si>
+  <si>
     <t>VENTA CASA SAN BORJA
 Ubicadísima, acogedora, segura e iluminada !!  - Fácil acceso a transporte.
 Venta de casa de 2 Pisos...</t>
   </si>
   <si>
+    <t>Vendo hermosa  casa en Las Lagunas de  La Molina
+AT. 461m2 Y AC. 312m2
+PRECIO $790,000.
+La casa se encuentra en una zona...</t>
+  </si>
+  <si>
     <t>UBICADISIMA CASA EN EL CORAZON DE LA ESTANCIA LA MOLINA !!
 Seguridad 24 horas. Cámaras en todas la urbanizacion.  Garitas...</t>
   </si>
   <si>
+    <t>Sala, Comedor, Comedor de diario, Cocina, Escritorio, Sala de estar, 5 Dormitorios, 6.5 Baños, 4 Baños incorporados, Cuarto...</t>
+  </si>
+  <si>
     <t>PRECIOSA CASA MINIMALISTA. CONDOMINIO PORTADA DEL HARAS, FINOS ACABADOS, TECHOS ALTOS EXCELENTE DISTRIBUCIÓN. FULL SEGURIDAD...</t>
+  </si>
+  <si>
+    <t>INDA CASA EN CONDOMINIO El Sol de La Molina 340m2 con excelente ubicación, dos plantas. 
+Primer Piso: Sala y comedor con ...</t>
+  </si>
+  <si>
+    <t>Calle ALBERTO BARTÓN, Urb. SANTA CATALINA
+Zonificación Comercial
+A.O. : 160 m2, A.C. : 160 m2.
+Piso 1.
+Zonificación comercial...</t>
+  </si>
+  <si>
+    <t>OCASIÒN Casa con paràmetros para 7 pisos a precio de terreno
+Sala, comedor, cocina, 3 dormitorios, 3.5 baños, pisicina, escritorio...</t>
+  </si>
+  <si>
+    <t>!!OCASIÓN!! CASA EN ESQUINA A MEDIA CUADRA DEL PARQUE
+Cerca a Universidades, restaurantes, colegios etc.
+PRECIO $750,000...</t>
+  </si>
+  <si>
+    <t>Vendo linda casa frente a parque en Urb Las Gardenias, Surco
+A 2 cuadras de Velasco y Caminos del Inca
+AT:300m2     AC: 320m2...</t>
+  </si>
+  <si>
+    <t>VENTA DE MODERNA CASA EN LA MOLINA PERFECTA PARA TU HERMOSA FAMILIA
+300 metros cuadrados de área total.
+307 metros cuadrados...</t>
+  </si>
+  <si>
+    <t>Impresionante y Hermosa casa independiente en venta en el distrito de la  Molina 
+i Ubicada cerca a laguna Grande y Av la...</t>
+  </si>
+  <si>
+    <t>CASA EN CHORRILLOS
+Calle Daniel Urrea 251
+Excelente ubicación a media cuadra del malecón Costa Sur
+Se vende casa como terreno...</t>
+  </si>
+  <si>
+    <t>Casa en venta en San Isidro
+Ubicación: Calle Baltazar La Torre Nro 392 – 394 -396, Urb. Orrantia – San Isidro
+A.T 365.20M2...</t>
+  </si>
+  <si>
+    <t>Vendo bella casa de campo de 1500 mt2, ubicada en Segunda Transversal 150, Urbanización California, Chosica. Esta hermosa...</t>
+  </si>
+  <si>
+    <t>A.T. : 360 m2, A.C. : 230 m2.
+Flat, 23 años de antigüedad, vista a la calle, en buen estado.
+Sin muebles, hall, 1 sala, comedor...</t>
+  </si>
+  <si>
+    <t>Linda casa en condominio en una zona muy segura. Ingreso bastante amplios e iluminados, muy buena distribución, finos acabados...</t>
+  </si>
+  <si>
+    <t>LINDA CASA EN CONDOMINIO PORTADA DEL HARAS 600m2 con excelente ubicación, dos plantas.
+Primer Piso: Hall, doble sala (1 ...</t>
+  </si>
+  <si>
+    <t>Ubicado: Jr. Las Dalias.
+Cerca: Universidad Ricardo Palma, Instituto CAPECO,  colegio La Inmaculada Jesuitas.
+ AT. 598mt2...</t>
+  </si>
+  <si>
+    <t>La casa tiene 36 años de antigüedad, tiene 202m cuadrados de área de terreno y 280m cuadros construídos.
+1er piso: 2 salas...</t>
+  </si>
+  <si>
+    <t>¡¡Venta de terreno en Magdalena, con mucho potencial para constructores!! A unos pasos del Ministerio del Ambiente. Con acceso...</t>
+  </si>
+  <si>
+    <t>Importante casa en venta, es muy iluminada, ventilada y todos los espacios son muy buenos. Cuenta con 2 pisos, escalera principal...</t>
+  </si>
+  <si>
+    <t>CASA CON MUCHO CARACTER, TOTALMENTE REMODELADA TECHO A DOS AGUAS.
+PRIMERA PLANTA PISO CON PORCELANTO CON DESNIVELES ESTA ...</t>
+  </si>
+  <si>
+    <t>Magnifica casa, excelente distribución, zona segura y de fácil acceso a avenidas y centros comerciales.
+Primer Nivel:
+Jardín...</t>
+  </si>
+  <si>
+    <t>Vendo Casa en Ca. Jacaranda Frente a Parque. Excelente Oportunidad - Ver Cabida
+EXCELENTE Casa en venta como terreno 596m2...</t>
+  </si>
+  <si>
+    <t>linda casa con techos de doble altura super bien conservada en segunda etapa rinconada del lago.
+ingreso con pequeña pileta...</t>
+  </si>
+  <si>
+    <t>Venta de linda casa en calle cerrada con vigilancia en Surco
+Área 342m2
+Casa amplia con jardín delantero y posterior de un...</t>
+  </si>
+  <si>
+    <t>linda casa de dos pisos
+primer piso
+pisos de madera 
+sala comedor ,escritorio,sala de estar baño de visitas ,cocina comedor...</t>
+  </si>
+  <si>
+    <t>¡Impecable! Linda casa con excelente distribución y acabados, espacios amplios e iluminados. El terreno es de 1180 m2 y está...</t>
+  </si>
+  <si>
+    <t>🏡 ¡Oportunidad única en Urb. CAMACHO La Molina! Venta de una espaciosa casa de 1062 m2 de terreno y 712 m2 de construcción...</t>
+  </si>
+  <si>
+    <t>Se vende bonita casa , muy bien distribuida, ambientes amplios y mucha luminosidad.
+Casa bien mantenida con un área de terreno...</t>
+  </si>
+  <si>
+    <t>Si estas pensando comprar un departamento esta casa podría ser una mejor opción:
+Esta impresionante propiedad en venta es...</t>
+  </si>
+  <si>
+    <t>casa de un solo piso
+puerta a la calle 
+269m2
+sala comedor cocina 3 dormitorios
+amplia para remodelar puede acomodarse a ...</t>
+  </si>
+  <si>
+    <t>casa en primer piso por remodelar 
+instalaciones de agua luz telefono
+puerta a la calle 
+posibilidad licencia comercial o...</t>
+  </si>
+  <si>
+    <t>Se vende buena casa, bien distribuida con ambientes amplios y mucha luminosidad
+270.9  m2 Área Terreno 
+268.50 m2 Área Construída...</t>
+  </si>
+  <si>
+    <t>Se Vende Hermosa Casa de Dos Pisos en Condominio Privado - Santa María 
+Condominio/Resort Las Arboledas de Santa María - ...</t>
+  </si>
+  <si>
+    <t>Se vende hermosa casa minimalista en Santiago de Surco, frente a parque totalmente remodelada en el 2018 con un área de 400...</t>
+  </si>
+  <si>
+    <t>Venta de casa CZ cerca a Plaza San Miguel.
+Cerca a plaza San Miguel, Hiraoka, restaurantes, Colegio Claretiano, fácil acceso...</t>
+  </si>
+  <si>
+    <t>EN VENTA:
+Inmueble de 3 pisos (2014), con ambientes bien iluminados y finos acabados. cuenta con 5 dormitorios, 1 escritorio...</t>
+  </si>
+  <si>
+    <t>CASA EN VENTA EN LA MOLINA, EN ESQUINA EN LA
+URBANIZACIÓN LOS INGENIEROS
+Casa de Ocasión! Ubicada en calle tranquila y fácil...</t>
+  </si>
+  <si>
+    <t>Venta de casa frente a parque en condominio privado ubicado en Monterrico, Surco.
+Casa de dos pisos.
+4 dormitorios
+3 baños...</t>
+  </si>
+  <si>
+    <t>¡Gran oportunidad! Venta de una casa ubicada en Juan de la Fuente 905 Urb. San Antonio, Miraflores. Con un área de terreno...</t>
+  </si>
+  <si>
+    <t>Vendo de ocasión excelente terreno agrícola con plantaciones de uva borgoña 5 Has y palta Hass 2.5 has, con optima producción...</t>
+  </si>
+  <si>
+    <t>Venta hermosa Casa en exclusiva zona de Miraflores, con amplio Jardín y terraza. De 5 Dormitorios, 1 en el 1er piso  4 en...</t>
+  </si>
+  <si>
+    <t>CASA EN CONDOMINIO - RINCONADA DEL LAGO II - LA MOLINA
+HERMOSA VIVIENDA SEMI AMOBLADA, DE 3 DORMITORIOS EN CONDOMINIO DE...</t>
+  </si>
+  <si>
+    <t>Venta Casa con hermosa terraza y jardín y excelente ubicación en Paseo La Castellana, a unas pocas cuadras del centro comercial...</t>
+  </si>
+  <si>
+    <t>OCASION!!! Casa ubicada en esquina, amplios ambientes: sala, comedor, cocina, baño de visita, cochera para un carro que podría...</t>
+  </si>
+  <si>
+    <t>Ideal inmueble para remodelar y vivir una gran familia, proyecto inmobiliario y/o comercio, ubicación es excelente pues esta...</t>
+  </si>
+  <si>
+    <t>CASA DE CAMPO / TERRENO  3 HECTÁREA, EN EL DISTRITO DE PUCUSANA con áreas sembradas de olivo cuenta con dos pozos agua dulce...</t>
+  </si>
+  <si>
+    <t>Vendo casa de dos pisos en excelente ubicación en el distrito de Miraflores, cerca a avenidas, centros comerciales, colegios...</t>
+  </si>
+  <si>
+    <t>Agente: Milagros Garibaldi Cel: 961*355*201 - VENDO PRECIOSA CASA EN LA MOLINA VIEJA - 1,125 MT. - 4 DORMITORIOS - 7 COCHERAS...</t>
+  </si>
+  <si>
+    <t>Hermosa casa de campo,ubicada a 45 minutos de Lima, cercada con paredes de ladrillo para su seguridad, rodeada de jardines...</t>
+  </si>
+  <si>
+    <t>SANTIAGO DE SURCO SE VENDE HERMOSA CASA CODIGO  K-1379 /  TRES PLANTAS / 2 COCHERAS / 2 ESTACIONAMIENTOS / 5 DORMITORIOS ...</t>
+  </si>
+  <si>
+    <t>Esta casona republicana de 1900 totalmente restaurada en 2017 y en impecable
+estado de conservación cuenta con un área construida...</t>
+  </si>
+  <si>
+    <t>Precio negociable
+HERMOSA CASA EN LAS BRISAS DE VILLA
+UBICACIÓN: Alameda Costa Norte – Las Brisas de Villa Chorrillos
+Área...</t>
+  </si>
+  <si>
+    <t>Casa · 200m² · 4 Dormitorios · 2 Estacionamientos
+Venta de hermosa casa  con finos acabados en Urbanización 
+Prolongación...</t>
+  </si>
+  <si>
+    <t>Buena casa con frente 13.74, se encuentra en buen estado ubicado en condominio. El predio consta de dos plantas y se hicieron...</t>
+  </si>
+  <si>
+    <t>Se vende dúplex. Ocasión. Misma Avenida Tomás Marsano con Roca y Bologna. Condomio seguro. El departamento cuenta en la primera...</t>
+  </si>
+  <si>
+    <t>NO ES UNA CASA SOLO PARA SOÑAR - ES UNA CASA QUE MERECE HACERLA REALIDAD 
+Todas las cualidades que combinan lujo, practicalidad...</t>
+  </si>
+  <si>
+    <t>Casa de tres pisos, de diseño clásico, muy bien conservada, situada dentro de un condominio exclusivo de solo 6 casas, totalmente...</t>
+  </si>
+  <si>
+    <t>HERMOSO TOWN HOUSE DE CUATRO PISOS CON DIEZ AÑO DE ANTIGÜEDAD PERO EN EXCELENTES CONDICIONES, 3 DORMITORIOS, EL DORMITORIO...</t>
+  </si>
+  <si>
+    <t>EN LAS LOMAS DE LA MOLINA VIEJA, SE VENDE UNA HERMOSA CASA A ESTRENAR CÓDIGO KCV-1495 / 3 PÌSOS / 5 DORMITORIOS CON CLOSET...</t>
+  </si>
+  <si>
+    <t>Queda en la mitad del cerro San Francisco
+Es una de las calles más planas de Casuarinas Alta</t>
+  </si>
+  <si>
+    <t>Calle JUNIN, BARRANCO
+Ref: ALTURA DEL MALECÓN PAZOS Y A 2 CUADRAS DEL PUENTE DE LOS SUSPIROS
+$ 2900,000
+A.T. : 951.00 m2,...</t>
+  </si>
+  <si>
+    <t>casa como terreno en venta para proyecto</t>
+  </si>
+  <si>
+    <t>Área                  : 111.67m
+Ac                     : 149.28m
+Frente               : 5.20
+Zonificación     : C Z
+Dormitorios...</t>
+  </si>
+  <si>
+    <t>CASA / TERRENO en VENTA en SANTIAGO DE SURCO
+Jirón GERONIMO DE ALIAGA NORTE
+Urb. VALLE HERMOSO ESTE
+Ref: A TRES CUADRAS DE...</t>
+  </si>
+  <si>
+    <t>¿Necesitas más espacio?
+Entonces tiene esta excelente oportunidad, casa en venta, 2 pisos mas azotea. Ubicada en cuadra 7...</t>
+  </si>
+  <si>
+    <t>Casa de 02 Pisos + AZOTEA  Frente a Parque Los Héroes - Zona D - San Juan de Miraflores
+UBICACIÓN: CALLE MAXIMILIANO CARRANZA...</t>
+  </si>
+  <si>
+    <t>Linda casa por remodelar con jardín al ingreso y gran jardín posterior con terraza</t>
+  </si>
+  <si>
+    <t>LINDA CASA, MODERNA, ILUMINADA, ACABADOS DE PRIMERA, CONDOMINIO SÚPER TRANQUILO Y MODERNO DE 19 LOTES.
+CUENTA CON 3 DORMITORIOS...</t>
+  </si>
+  <si>
+    <t>Atrás
+Casa · 160m² · 8 Dormitorios
+Venta S/ 718,200 · USD 189,000
+Calle José Diaz, San Juan de Miraflores, San Juan de ...</t>
+  </si>
+  <si>
+    <t>CASA en VENTA en MIRAFLORES
+Calle EDUARDO DE LA TORRE VILLAMONTE N°205, Urb. EL ROSAL
+Ref: ESPALDA IGLESIA SANTA RITA DE ...</t>
+  </si>
+  <si>
+    <t>AT                     :160m
+AC                    :60 m
+Frente              :8 m
+Dormitorios     :2
+Baño                ...</t>
+  </si>
+  <si>
+    <t>Bellísima casa en venta en la exclusiva zona de la Urb. Brisas de Villa, Alameda El Triángulo, Chorrillos. 
+Hall, amplísima...</t>
+  </si>
+  <si>
+    <t>550 m2Terreno - 550 m2Construída
+- Características:
+Hall
+2 salas
+Comedor
+Comedor de diario
+Cocina cerrada
+Lavandería
+Estar...</t>
+  </si>
+  <si>
+    <t>VENDO LINDA CASA, UNA SOLA PLANTA, MUY BUENA DISTRIBUCIÓN, CUENTA CON LO SIGUIENTE:
+- HABITACION AMPLIA PARA ESCRITORIO
+-...</t>
+  </si>
+  <si>
+    <t>Casa amplia en primer piso con 142 metros de área construida y con UN departamento con acceso independiente en el segundo...</t>
+  </si>
+  <si>
+    <t>Arquitecto Richard Malachowsky, Diseño moderno, ambientes amplios, muy iluminada, todos los ambientes dan a los jardines,...</t>
+  </si>
+  <si>
+    <t>CASA ESTILO MARIO LARA DE TRES PLANTAS, MUY LUMINOSA TECHOS ALTOS, DOBLE SALA, COMEDOR SEPARADO, AMPLIA COCINA CON TABLEROS...</t>
+  </si>
+  <si>
+    <t>Contacto: Mariella Ames –  9*9*7*5*2*0*7*6*2
+Comprar una casa en Miraflores es mucho más que una inversión; es un valiente...</t>
+  </si>
+  <si>
+    <t>VENDO BELLA CASA EN URB. EL ROSEDAL - MIRAFLORES
+Ubicación: AURELIO FERNANDEZ CONCHA - CERCA A LA AV. BENAVIDES , IGLESIA...</t>
+  </si>
+  <si>
+    <t>EXCELENTE CASA MUY BIEN CONSERVADA, 25 MTS DE FRENTE, CON PISOS DE PIEDRA Y MUCHA MADERA, ARQUITECTURA MUY CÁLIDA, TODO MIRANDO...</t>
+  </si>
+  <si>
+    <t>Casa amplia con 4 departamentos de 2 dormitorios cada uno. Genera renta de 2000 dólares mensuales.
+Primer piso: Casa amplia...</t>
+  </si>
+  <si>
+    <t>LINDA CASA EN SOL DE LA MOLINA, 1ERA ETAPA, RODEADA DE JARDINES, SÚPER ILUMINADA, 3 DORMITORIOS, SALA, COMEDOR, SALA TV, ...</t>
+  </si>
+  <si>
+    <t>VENTA LINDA CASA EN CONDOMINIO - CON PISCINA Y HERMOSO JARDIN EN EL SOL DE LA MOLINA
+Ubicación: Calle El Paraíso - cerca...</t>
+  </si>
+  <si>
+    <t>160 metros cuadrados de terreno, 250 metros en área construida, amplia sala comedor, cocina con comedor de diario, garage...</t>
+  </si>
+  <si>
+    <t>VENDO CASA COMO TERRENO, CUENTA CON LICENCIA DE DEMOLICIÓN, LOS PARÁMETROS SON PARA 3 PISOS PERO POR COLINDANCIA SE PUEDE...</t>
+  </si>
+  <si>
+    <t>CONTACTO: JORGE BENITES // 964*367*970
+Hermoso e Inmenso departamento AT: 500M2 / Área Const de: 235 m2  en venta ubicado...</t>
+  </si>
+  <si>
+    <t>Gran Oportunidad. Terreno para constructores con parque interno. Frente al Jockey Plaza
+Sin Muebles, 21 años de antigüedad...</t>
+  </si>
+  <si>
+    <t>ESPECTACULAR RESIDENCIA IDEAL EMBAJADORES O PERSONAS DE PRIMER NIVEL, DOBLE SALA CON CHIMENEA, COMEDOR SEPARADO, COCINA GRANDE...</t>
+  </si>
+  <si>
+    <t>LINDA CASA CON ESTILO SEMI-RÚSTICO, CON PERSONALIDAD PROPIA, RODEADA DE LINDO JARDIN, TERRAZAS, BBQ Y PISCINA. 
+TIENE DOS...</t>
+  </si>
+  <si>
+    <t>Casa Amplia, de 240 metros de terreno y adicionalmente tiene en posesión documentada 80 metros cuadrados de jardín interior...</t>
+  </si>
+  <si>
+    <t>CONTACTO: Mariella Ames - 9*9*7*5*2*0*7*6*2*
+La casa se encuentra ubicada en Jr. Ricardo Palma, paralela a la Av. Flora ...</t>
+  </si>
+  <si>
+    <t>Realmente una joya! Casa diseñada por el destacado arquitecto Mario Lara, en "L" emplazada en el bosque El Olivar, rodeada...</t>
+  </si>
+  <si>
+    <t>Acogedora casa en venta en estilo clásico diseñada por el arquitecto Juan Carlos Domenack. Se entra a la casa por una entrada...</t>
+  </si>
+  <si>
+    <t>Esa preciosa casa de tres pisos es una joya, a unos pasos del Malecón en calle tranquila en Miraflores. Se entra por un recibo...</t>
+  </si>
+  <si>
+    <t>Casa en el Sol de La Molina 3ra. Etapa. - 
+1150mt AT, construcción 450 mt AC
+Antiguedad 50 años
+PRECIO DE VENTA $799,000...</t>
+  </si>
+  <si>
+    <t>Bienvenido a la exclusividad y el lujo en el corazón del distinguido barrio de Chacarilla. Presentamos este impresionante...</t>
+  </si>
+  <si>
+    <t>Zona alredor del colegio León Pinelo, Pezet, etc.
+Sin Muebles, 42 años de antigüedad, Vista a la Calle, ideal para proyecto...</t>
+  </si>
+  <si>
+    <t>VENDO CASA EN CALLE LEON DE LA FUENTE CDRA. 2 - MAGDALENA DEL MAR- LIMITE SAN ISIDRO 
+PRECIO DE VENTA US$650,000.- 
+A.T. ...</t>
+  </si>
+  <si>
+    <t>VENDO LINDA CASA EN CONDOMINIO PRIVADO EN MANUEL OLGUIN - MONTERRICO - DISTRITO DE SANTIAGO DE SURCO 
+AT. 120 m2. AC. 220...</t>
+  </si>
+  <si>
+    <t>Calle ARICA
+Amoblado y equipado, 6 años de antigüedad, vista a la calle, remodelada, dos plantas.
+Hall de ingreso, 2 salas...</t>
+  </si>
+  <si>
+    <t>Casi de ESTRENO!!! LA MEJOR VISTA AL MAR DESDE ESTA CASA QUE PARECE ITALIANA!!! . Preciosa casa de playa amoblada en venta...</t>
+  </si>
+  <si>
+    <t>CASA DE DOS PLANTAS - OPORTUNIDAD DE NEGOCIO E INVERSION - SE ACEPTAN OFERTAS.</t>
+  </si>
+  <si>
+    <t>VENDO CASA QUINTA DESOCUPADA IDEAL PARA PROYECTO INMOBILIARIO - FRENTE AL PARQUE DE LAS AGUAS, COSTADO DE ANTIGUA CERVECERÍA...</t>
+  </si>
+  <si>
+    <t>¡Un oasis de tranquilidad en La Planicie! - Disfruta de la tranquilidad y seguridad que ofrece esta casa ubicada en una urbanización...</t>
+  </si>
+  <si>
+    <t>CASA AMPLIA 200 mt2
+CONSTRUCCION DE
+CONCRETO CON 42 AÑOS DE
+ANTIGUEDAD
+Área construida( 261mt)
+Sistema de electricidad trifasica...</t>
+  </si>
+  <si>
+    <t>- VENTA DE CASA EN AV. AYACUCHO, A DOS CUADRAS DE AV. BENAVIDES, SANTIAGO DE SURCO.
+- 4 DORMITORIOS.
+- EL PRINCIPAL CON...</t>
+  </si>
+  <si>
+    <t>Vive cerca al Óvalo Chama, cerca a mercados, Mega Plaza Villa el Salvador.
+📍 Ubicada en Villa El Salvador, a dos cuadras...</t>
+  </si>
+  <si>
+    <t>Bienvenido a la exclusiva experiencia de vida en La Planicie. Esta impresionante casa en condominio redefine la elegancia...</t>
+  </si>
+  <si>
+    <t>🚩 Ocasión, confortable casa en venta de 3 pisos ubicado en una buena zona de Monterrico - Surco 🚩
+🫶 Comodidades para ...</t>
+  </si>
+  <si>
+    <t>“Linda Casa en Zona Residencial del Callao con 4 Dormitorios, 3 Baños y Amplias Características Internas y Externas”
+Linda...</t>
+  </si>
+  <si>
+    <t>La casa se encuentra ubicada en el primer nivel dentro de un condominio.
+Es de un nivel, con vista directa al mar. 
+110 ...</t>
+  </si>
+  <si>
+    <t>LISTA PARA MUDARSE! Preciosa casa en venta en San Isidro con vista a árboles y verde, desde prácticamente todas las áreas...</t>
+  </si>
+  <si>
+    <t>PRECIO DE VENTA US$ 600,000
+Se vende casa de 359.46M2
+Antigüedad 73 años
+440M2 construidos
+1er piso 	Sala, comedor, bar...</t>
+  </si>
+  <si>
+    <t>Se trata de una vivienda con vista exterior, consta de una edificación de 2 pisos el cual cuenta con un ingreso peatonal ...</t>
+  </si>
+  <si>
+    <t>Hermosa casa dentro de condominio privado, cuenta con Hall de ingreso, sala y comedor con linda vista al jardín, sala de ...</t>
+  </si>
+  <si>
+    <t>VENDO HERMOSA CASA EN CONDOMIO , BATALLON TARMA , SURCO, 
+PRIMERA PLANTA, HALL DE ENTRADA, BAÑO DE VISITA , SALA , COMEDOR...</t>
+  </si>
+  <si>
+    <t>Entérate más: 9.9.8.1.1.9.2----
+Super conservada e impecable casa de 3 pisos, en plena avenida, 2 cocheras, terraza, con...</t>
+  </si>
+  <si>
+    <t>ESPECTACULAR Casa en venta en Condominio Privado en Casuarinas SURCO, con control de seguridad en Garita a la entrada del...</t>
+  </si>
+  <si>
+    <t>Esta hermosa casa fue remodelada íntegramente en 2018 y tiene ambientes preciosos. Al ingresar nos damos con un recibo en...</t>
+  </si>
+  <si>
+    <t>Lujosa e Iluminada Casa en Venta DE ESTRENO en una de las mejores calles de Zona de Parques Privados en San Isidro, a pocas...</t>
+  </si>
+  <si>
+    <t>CASA EN VENTA EN LA CANTUTA - CHOSICA - COSTADO CLUB REGATAS DE LA CANTUTA   - AV. CIRCUNVALACION  155 
+PRECIO DE VENTA :...</t>
+  </si>
+  <si>
+    <t>🔥🔥🔥VENTA DE CASA CON PISCINA EN SANTA PATRICIA ERA. ETAPA - LA MOLINA
+✅Altura cuadra 65 de la Av. Javier Prado Este.  
+...</t>
+  </si>
+  <si>
+    <t>Esta hermosa casa se encuentra ubicada en una espectacular esquin cerca al Lima Golf Club en San Isidro Tradicional. Actualmente...</t>
+  </si>
+  <si>
+    <t>Preciosa casa casi nueva del destacado Arquitecto Fernando Ponce en San Isidro, a pasos del Colegio León Pinelo, a 3 cuadras...</t>
+  </si>
+  <si>
+    <t>VENDO HERMOSA CASA EN LA PLANICIE , JIRON EL GOLF, AREA DE 1,700 MTS2, CON 4 DORMITORIOS , EL PRINCIPAL CON WALKING CLOSET...</t>
+  </si>
+  <si>
+    <t>Terreno de 600m2, en excelente ubicación residencial en San Isidro, con 15 mts de frente y fondo a Parque Privado Mariscal...</t>
+  </si>
+  <si>
+    <t>CASA EN VENTA EN SURCO - FRENTE A PARQUE.
+CERCA A LA AV. CAMINOS DEL INCA CON AV. HIGUERETA.
+AT: 252m2 
+AC: 320m2 
+PRECIO...</t>
+  </si>
+  <si>
+    <t>CASA EN VENTA EN LOS MANZANOS 315, SAN ISIDRO
+Ref: CERCA DE LA CLINICA EL GOLF.
+AT 332 m2, AC, 602 m2., 
+2 pisos,...</t>
+  </si>
+  <si>
+    <t>La Casa tiene 2 plantas, usada y construida hace 41 años. El estado actual del inmueble es: Por Remodelar. Su uso puede ser...</t>
+  </si>
+  <si>
+    <t>CASA EN VENTA EN SURCO - FRENTE A PARQUE
+PRECIO: $ 535,200 (SE ESCUCHA PROPUESTA)
+AT: 200m2 
+AC: 448.79m2
+CARACTERISTICAS...</t>
+  </si>
+  <si>
+    <t>Casa con 32 años de antigüedad, zona comercial, por remodelar, lindero fdo. = 21.00 mts., lindero fte. = 20.30 mts., zonificación...</t>
+  </si>
+  <si>
+    <t>Ubicada en el corazón de Monterrico, a 1 cuadra de dos parques, a 4 cuadras de la Av. Primavera, a 3 cuadras de la Av. EL...</t>
+  </si>
+  <si>
+    <t>Linda casa en venta ubicada en una de las zonas mas exclusivas de Cieneguilla
+Características Generales
+Precio : US$ 475,000...</t>
+  </si>
+  <si>
+    <t>OCASIÓN PRECIOSA CASA!! VENDO CASA EN EXCLUSIVA URB. PASO CHICO  EN LURIN DE 1150m2 en US$ 425,000 dólares.
+ UBICADA EN ...</t>
+  </si>
+  <si>
+    <t>CASA VIVIENDA EN BUEN ESTADO DE CONSERVACION A PRECIO DE CAMPAÑA $ 1,200,00 UBICADO EN ZONA RESIDENCIAL 
+VALOR COMERCIAL...</t>
+  </si>
+  <si>
+    <t>Esta casa esta construida en un terreno espectacular con tres frentes, incluyendo uno a parque. Tiene espacios amplios, buena...</t>
+  </si>
+  <si>
+    <t>CASA EN VENTA EN URB. SAGITARIO, SANTIAGO DE SURCO
+En venta inmueble de 3 niveles, con cimientos para construir un cuarto...</t>
+  </si>
+  <si>
+    <t>Casa de 3 plantas , con parametros para  3 pisos, 2 salas . comedor, comewdor de diario,cocina, escalera , sala de estar,...</t>
+  </si>
+  <si>
+    <t>SE VENDE CASA/TERRENO IDEAL PARA REMODELAR O PARA PROYECTO 
+Valor Comercial $ 1.180,000 =&gt; ¡PRECIO NEGOCIABLE! 
+- Área de...</t>
+  </si>
+  <si>
+    <t>CASA EN CONDOMINIO EN VENTA EN  LA MOLINA
+Calle EL MONTICULO N° 146, casa 229, 
+Urb. LA PLANICIE
+Referencia: Altura cuadra...</t>
+  </si>
+  <si>
+    <t>Linda casa en venta ubicada en una de las zonas mas exclusivas de Cieneguilla
+Características Generales
+Precio : US$ 580,000...</t>
+  </si>
+  <si>
+    <t>Predio de 2 pisos, 3er. piso construido en parte, de material noble con aires disponibles para seguir construyendo.
+Terreno...</t>
+  </si>
+  <si>
+    <t>42 años de antigüedad, vista interior, en proyecto, zonificación residencial, una planta, parámetros para 2 pisos vencen ...</t>
+  </si>
+  <si>
+    <t>SE VENDE CASA DE 3 PISOS EN BUEN ESTADO DE CONSERVACIÓN IDEAL PARA VIVIR, CERCA A Av.EL SANTUARIA 
+VALOR COMERCIAL: $ 314,000...</t>
+  </si>
+  <si>
+    <t>CASA CHALET EN VENTA - EN AV. GUARDIA REPUBLICANA Y A 1 CDRA. DE LA AV. FELIPE ARANCIBIA - RIMAC
+PRECIO: $92,300 Dólares...</t>
   </si>
 </sst>
 </file>
@@ -754,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,19 +2554,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -805,19 +2574,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -825,19 +2594,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -845,19 +2614,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -865,19 +2634,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -885,19 +2654,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -905,19 +2674,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -925,19 +2694,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>457</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -945,19 +2714,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -965,19 +2734,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -985,19 +2754,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1005,19 +2774,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1025,19 +2794,19 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1045,19 +2814,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>457</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1065,19 +2834,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>456</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1085,19 +2854,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>456</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1105,19 +2874,19 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1125,19 +2894,19 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1145,19 +2914,19 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1165,19 +2934,19 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1185,19 +2954,19 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>458</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1205,19 +2974,19 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1225,19 +2994,19 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>453</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1245,19 +3014,19 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1265,19 +3034,19 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1285,19 +3054,19 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1305,19 +3074,19 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1325,19 +3094,19 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>453</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1345,39 +3114,3039 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>452</v>
+      </c>
+      <c r="E31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" t="s">
+        <v>451</v>
+      </c>
+      <c r="E33" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" t="s">
+        <v>451</v>
+      </c>
+      <c r="E34" t="s">
+        <v>451</v>
+      </c>
+      <c r="F34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" t="s">
+        <v>452</v>
+      </c>
+      <c r="E35" t="s">
+        <v>451</v>
+      </c>
+      <c r="F35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" t="s">
+        <v>453</v>
+      </c>
+      <c r="E36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F36" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" t="s">
+        <v>451</v>
+      </c>
+      <c r="E37" t="s">
+        <v>452</v>
+      </c>
+      <c r="F37" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" t="s">
+        <v>452</v>
+      </c>
+      <c r="E38" t="s">
+        <v>453</v>
+      </c>
+      <c r="F38" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" t="s">
+        <v>451</v>
+      </c>
+      <c r="E39" t="s">
+        <v>452</v>
+      </c>
+      <c r="F39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E40" t="s">
+        <v>451</v>
+      </c>
+      <c r="F40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
+        <v>452</v>
+      </c>
+      <c r="E41" t="s">
+        <v>452</v>
+      </c>
+      <c r="F41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" t="s">
+        <v>452</v>
+      </c>
+      <c r="E42" t="s">
+        <v>451</v>
+      </c>
+      <c r="F42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" t="s">
+        <v>452</v>
+      </c>
+      <c r="E43" t="s">
+        <v>451</v>
+      </c>
+      <c r="F43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E44" t="s">
+        <v>453</v>
+      </c>
+      <c r="F44" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" t="s">
+        <v>453</v>
+      </c>
+      <c r="E45" t="s">
+        <v>454</v>
+      </c>
+      <c r="F45" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>345</v>
+      </c>
+      <c r="D46" t="s">
+        <v>451</v>
+      </c>
+      <c r="E46" t="s">
+        <v>452</v>
+      </c>
+      <c r="F46" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D47" t="s">
+        <v>453</v>
+      </c>
+      <c r="E47" t="s">
+        <v>451</v>
+      </c>
+      <c r="F47" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" t="s">
+        <v>453</v>
+      </c>
+      <c r="E48" t="s">
+        <v>452</v>
+      </c>
+      <c r="F48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" t="s">
+        <v>452</v>
+      </c>
+      <c r="E49" t="s">
+        <v>452</v>
+      </c>
+      <c r="F49" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50" t="s">
+        <v>452</v>
+      </c>
+      <c r="E50" t="s">
+        <v>451</v>
+      </c>
+      <c r="F50" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>348</v>
+      </c>
+      <c r="D51" t="s">
+        <v>451</v>
+      </c>
+      <c r="E51" t="s">
+        <v>451</v>
+      </c>
+      <c r="F51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" t="s">
+        <v>452</v>
+      </c>
+      <c r="E52" t="s">
+        <v>451</v>
+      </c>
+      <c r="F52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" t="s">
+        <v>451</v>
+      </c>
+      <c r="E53" t="s">
+        <v>452</v>
+      </c>
+      <c r="F53" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" t="s">
+        <v>452</v>
+      </c>
+      <c r="E54" t="s">
+        <v>455</v>
+      </c>
+      <c r="F54" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" t="s">
+        <v>456</v>
+      </c>
+      <c r="E55" t="s">
+        <v>452</v>
+      </c>
+      <c r="F55" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" t="s">
+        <v>451</v>
+      </c>
+      <c r="E56" t="s">
+        <v>452</v>
+      </c>
+      <c r="F56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E57" t="s">
+        <v>452</v>
+      </c>
+      <c r="F57" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58" t="s">
+        <v>451</v>
+      </c>
+      <c r="E58" t="s">
+        <v>451</v>
+      </c>
+      <c r="F58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" t="s">
+        <v>452</v>
+      </c>
+      <c r="E59" t="s">
+        <v>455</v>
+      </c>
+      <c r="F59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" t="s">
+        <v>452</v>
+      </c>
+      <c r="E60" t="s">
+        <v>452</v>
+      </c>
+      <c r="F60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" t="s">
+        <v>357</v>
+      </c>
+      <c r="D61" t="s">
+        <v>451</v>
+      </c>
+      <c r="E61" t="s">
+        <v>452</v>
+      </c>
+      <c r="F61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="s">
+        <v>358</v>
+      </c>
+      <c r="D62" t="s">
+        <v>452</v>
+      </c>
+      <c r="E62" t="s">
+        <v>452</v>
+      </c>
+      <c r="F62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E63" t="s">
+        <v>453</v>
+      </c>
+      <c r="F63" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" t="s">
+        <v>451</v>
+      </c>
+      <c r="E64" t="s">
+        <v>453</v>
+      </c>
+      <c r="F64" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D65" t="s">
+        <v>453</v>
+      </c>
+      <c r="E65" t="s">
+        <v>456</v>
+      </c>
+      <c r="F65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" t="s">
+        <v>362</v>
+      </c>
+      <c r="D66" t="s">
+        <v>452</v>
+      </c>
+      <c r="E66" t="s">
+        <v>455</v>
+      </c>
+      <c r="F66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" t="s">
+        <v>452</v>
+      </c>
+      <c r="E67" t="s">
+        <v>455</v>
+      </c>
+      <c r="F67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68" t="s">
+        <v>451</v>
+      </c>
+      <c r="E68" t="s">
+        <v>452</v>
+      </c>
+      <c r="F68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D69" t="s">
+        <v>452</v>
+      </c>
+      <c r="E69" t="s">
+        <v>455</v>
+      </c>
+      <c r="F69" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" t="s">
+        <v>451</v>
+      </c>
+      <c r="F70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71" t="s">
+        <v>451</v>
+      </c>
+      <c r="F71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" t="s">
+        <v>453</v>
+      </c>
+      <c r="E72" t="s">
+        <v>453</v>
+      </c>
+      <c r="F72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>368</v>
+      </c>
+      <c r="D73" t="s">
+        <v>453</v>
+      </c>
+      <c r="E73" t="s">
+        <v>452</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" t="s">
+        <v>369</v>
+      </c>
+      <c r="D74" t="s">
+        <v>451</v>
+      </c>
+      <c r="E74" t="s">
+        <v>452</v>
+      </c>
+      <c r="F74" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>370</v>
+      </c>
+      <c r="D75" t="s">
+        <v>454</v>
+      </c>
+      <c r="E75" t="s">
+        <v>453</v>
+      </c>
+      <c r="F75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" t="s">
+        <v>458</v>
+      </c>
+      <c r="E76" t="s">
+        <v>458</v>
+      </c>
+      <c r="F76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" t="s">
+        <v>453</v>
+      </c>
+      <c r="E77" t="s">
+        <v>453</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" t="s">
+        <v>372</v>
+      </c>
+      <c r="D78" t="s">
+        <v>452</v>
+      </c>
+      <c r="E78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F78" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" t="s">
+        <v>451</v>
+      </c>
+      <c r="E79" t="s">
+        <v>453</v>
+      </c>
+      <c r="F79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" t="s">
+        <v>344</v>
+      </c>
+      <c r="D80" t="s">
+        <v>452</v>
+      </c>
+      <c r="E80" t="s">
+        <v>455</v>
+      </c>
+      <c r="F80" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" t="s">
+        <v>453</v>
+      </c>
+      <c r="E81" t="s">
+        <v>452</v>
+      </c>
+      <c r="F81" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
+        <v>452</v>
+      </c>
+      <c r="E82" t="s">
+        <v>452</v>
+      </c>
+      <c r="F82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" t="s">
+        <v>376</v>
+      </c>
+      <c r="D83" t="s">
+        <v>451</v>
+      </c>
+      <c r="E83" t="s">
+        <v>456</v>
+      </c>
+      <c r="F83" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" t="s">
+        <v>457</v>
+      </c>
+      <c r="E84" t="s">
+        <v>457</v>
+      </c>
+      <c r="F84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
         <v>81</v>
       </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="B85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" t="s">
+        <v>378</v>
+      </c>
+      <c r="D85" t="s">
+        <v>453</v>
+      </c>
+      <c r="E85" t="s">
+        <v>453</v>
+      </c>
+      <c r="F85" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" t="s">
+        <v>454</v>
+      </c>
+      <c r="E86" t="s">
+        <v>453</v>
+      </c>
+      <c r="F86" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" t="s">
+        <v>380</v>
+      </c>
+      <c r="D87" t="s">
+        <v>452</v>
+      </c>
+      <c r="E87" t="s">
+        <v>452</v>
+      </c>
+      <c r="F87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" t="s">
+        <v>451</v>
+      </c>
+      <c r="E88" t="s">
+        <v>453</v>
+      </c>
+      <c r="F88" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" t="s">
+        <v>451</v>
+      </c>
+      <c r="F89" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" t="s">
+        <v>452</v>
+      </c>
+      <c r="E90" t="s">
+        <v>458</v>
+      </c>
+      <c r="F90" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91" t="s">
+        <v>357</v>
+      </c>
+      <c r="E91" t="s">
+        <v>357</v>
+      </c>
+      <c r="F91" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" t="s">
+        <v>451</v>
+      </c>
+      <c r="E92" t="s">
+        <v>451</v>
+      </c>
+      <c r="F92" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" t="s">
+        <v>452</v>
+      </c>
+      <c r="E93" t="s">
+        <v>451</v>
+      </c>
+      <c r="F93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" t="s">
+        <v>452</v>
+      </c>
+      <c r="E94" t="s">
+        <v>455</v>
+      </c>
+      <c r="F94" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" t="s">
+        <v>453</v>
+      </c>
+      <c r="E95" t="s">
+        <v>456</v>
+      </c>
+      <c r="F95" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" t="s">
+        <v>453</v>
+      </c>
+      <c r="E96" t="s">
+        <v>460</v>
+      </c>
+      <c r="F96" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" t="s">
+        <v>457</v>
+      </c>
+      <c r="E97" t="s">
+        <v>461</v>
+      </c>
+      <c r="F97" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" t="s">
+        <v>453</v>
+      </c>
+      <c r="E98" t="s">
+        <v>451</v>
+      </c>
+      <c r="F98" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" t="s">
+        <v>451</v>
+      </c>
+      <c r="E99" t="s">
+        <v>455</v>
+      </c>
+      <c r="F99" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D100" t="s">
+        <v>456</v>
+      </c>
+      <c r="E100" t="s">
+        <v>453</v>
+      </c>
+      <c r="F100" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>391</v>
+      </c>
+      <c r="D101" t="s">
+        <v>453</v>
+      </c>
+      <c r="E101" t="s">
+        <v>451</v>
+      </c>
+      <c r="F101" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>392</v>
+      </c>
+      <c r="D102" t="s">
+        <v>456</v>
+      </c>
+      <c r="E102" t="s">
+        <v>455</v>
+      </c>
+      <c r="F102" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" t="s">
+        <v>452</v>
+      </c>
+      <c r="E103" t="s">
+        <v>452</v>
+      </c>
+      <c r="F103" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" t="s">
+        <v>394</v>
+      </c>
+      <c r="D104" t="s">
+        <v>451</v>
+      </c>
+      <c r="E104" t="s">
+        <v>453</v>
+      </c>
+      <c r="F104" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>342</v>
+      </c>
+      <c r="D105" t="s">
+        <v>457</v>
+      </c>
+      <c r="E105" t="s">
+        <v>452</v>
+      </c>
+      <c r="F105" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" t="s">
+        <v>395</v>
+      </c>
+      <c r="D106" t="s">
+        <v>451</v>
+      </c>
+      <c r="E106" t="s">
+        <v>451</v>
+      </c>
+      <c r="F106" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>342</v>
+      </c>
+      <c r="D107" t="s">
+        <v>455</v>
+      </c>
+      <c r="E107" t="s">
+        <v>458</v>
+      </c>
+      <c r="F107" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" t="s">
+        <v>348</v>
+      </c>
+      <c r="D108" t="s">
+        <v>451</v>
+      </c>
+      <c r="E108" t="s">
+        <v>451</v>
+      </c>
+      <c r="F108" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>396</v>
+      </c>
+      <c r="D109" t="s">
+        <v>451</v>
+      </c>
+      <c r="E109" t="s">
+        <v>451</v>
+      </c>
+      <c r="F109" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>397</v>
+      </c>
+      <c r="D110" t="s">
+        <v>457</v>
+      </c>
+      <c r="E110" t="s">
+        <v>453</v>
+      </c>
+      <c r="F110" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" t="s">
+        <v>312</v>
+      </c>
+      <c r="D111" t="s">
+        <v>451</v>
+      </c>
+      <c r="E111" t="s">
+        <v>453</v>
+      </c>
+      <c r="F111" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" t="s">
+        <v>398</v>
+      </c>
+      <c r="D112" t="s">
+        <v>453</v>
+      </c>
+      <c r="E112" t="s">
+        <v>453</v>
+      </c>
+      <c r="F112" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" t="s">
+        <v>452</v>
+      </c>
+      <c r="F113" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>399</v>
+      </c>
+      <c r="D114" t="s">
+        <v>453</v>
+      </c>
+      <c r="E114" t="s">
+        <v>453</v>
+      </c>
+      <c r="F114" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>400</v>
+      </c>
+      <c r="D115" t="s">
+        <v>452</v>
+      </c>
+      <c r="E115" t="s">
+        <v>452</v>
+      </c>
+      <c r="F115" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>401</v>
+      </c>
+      <c r="D116" t="s">
+        <v>459</v>
+      </c>
+      <c r="E116" t="s">
+        <v>456</v>
+      </c>
+      <c r="F116" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" t="s">
+        <v>342</v>
+      </c>
+      <c r="D117" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" t="s">
+        <v>452</v>
+      </c>
+      <c r="F117" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" t="s">
+        <v>452</v>
+      </c>
+      <c r="E118" t="s">
+        <v>452</v>
+      </c>
+      <c r="F118" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" t="s">
+        <v>402</v>
+      </c>
+      <c r="D119" t="s">
+        <v>456</v>
+      </c>
+      <c r="E119" t="s">
+        <v>452</v>
+      </c>
+      <c r="F119" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" t="s">
+        <v>342</v>
+      </c>
+      <c r="D120" t="s">
+        <v>454</v>
+      </c>
+      <c r="E120" t="s">
+        <v>451</v>
+      </c>
+      <c r="F120" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" t="s">
+        <v>403</v>
+      </c>
+      <c r="D121" t="s">
+        <v>357</v>
+      </c>
+      <c r="E121" t="s">
+        <v>357</v>
+      </c>
+      <c r="F121" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" t="s">
+        <v>404</v>
+      </c>
+      <c r="D122" t="s">
+        <v>451</v>
+      </c>
+      <c r="E122" t="s">
+        <v>453</v>
+      </c>
+      <c r="F122" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" t="s">
+        <v>405</v>
+      </c>
+      <c r="D123" t="s">
+        <v>451</v>
+      </c>
+      <c r="E123" t="s">
+        <v>452</v>
+      </c>
+      <c r="F123" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>406</v>
+      </c>
+      <c r="D124" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" t="s">
+        <v>453</v>
+      </c>
+      <c r="F124" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" t="s">
+        <v>451</v>
+      </c>
+      <c r="E125" t="s">
+        <v>451</v>
+      </c>
+      <c r="F125" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" t="s">
+        <v>344</v>
+      </c>
+      <c r="D126" t="s">
+        <v>453</v>
+      </c>
+      <c r="E126" t="s">
+        <v>456</v>
+      </c>
+      <c r="F126" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>408</v>
+      </c>
+      <c r="D127" t="s">
+        <v>452</v>
+      </c>
+      <c r="E127" t="s">
+        <v>455</v>
+      </c>
+      <c r="F127" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" t="s">
+        <v>409</v>
+      </c>
+      <c r="D128" t="s">
+        <v>451</v>
+      </c>
+      <c r="E128" t="s">
+        <v>452</v>
+      </c>
+      <c r="F128" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" t="s">
+        <v>410</v>
+      </c>
+      <c r="D129" t="s">
+        <v>452</v>
+      </c>
+      <c r="E129" t="s">
+        <v>451</v>
+      </c>
+      <c r="F129" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" t="s">
+        <v>411</v>
+      </c>
+      <c r="D130" t="s">
+        <v>451</v>
+      </c>
+      <c r="E130" t="s">
+        <v>452</v>
+      </c>
+      <c r="F130" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" t="s">
+        <v>412</v>
+      </c>
+      <c r="D131" t="s">
+        <v>451</v>
+      </c>
+      <c r="E131" t="s">
+        <v>455</v>
+      </c>
+      <c r="F131" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="s">
+        <v>413</v>
+      </c>
+      <c r="D132" t="s">
+        <v>452</v>
+      </c>
+      <c r="E132" t="s">
+        <v>451</v>
+      </c>
+      <c r="F132" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>92</v>
+      </c>
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" t="s">
+        <v>403</v>
+      </c>
+      <c r="D133" t="s">
+        <v>453</v>
+      </c>
+      <c r="E133" t="s">
+        <v>451</v>
+      </c>
+      <c r="F133" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>414</v>
+      </c>
+      <c r="D134" t="s">
+        <v>455</v>
+      </c>
+      <c r="E134" t="s">
+        <v>455</v>
+      </c>
+      <c r="F134" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
         <v>116</v>
+      </c>
+      <c r="B135" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" t="s">
+        <v>451</v>
+      </c>
+      <c r="E135" t="s">
+        <v>452</v>
+      </c>
+      <c r="F135" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" t="s">
+        <v>348</v>
+      </c>
+      <c r="D136" t="s">
+        <v>451</v>
+      </c>
+      <c r="E136" t="s">
+        <v>453</v>
+      </c>
+      <c r="F136" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" t="s">
+        <v>415</v>
+      </c>
+      <c r="D137" t="s">
+        <v>453</v>
+      </c>
+      <c r="E137" t="s">
+        <v>451</v>
+      </c>
+      <c r="F137" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" t="s">
+        <v>342</v>
+      </c>
+      <c r="D138" t="s">
+        <v>453</v>
+      </c>
+      <c r="E138" t="s">
+        <v>453</v>
+      </c>
+      <c r="F138" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>120</v>
+      </c>
+      <c r="B139" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" t="s">
+        <v>416</v>
+      </c>
+      <c r="D139" t="s">
+        <v>456</v>
+      </c>
+      <c r="E139" t="s">
+        <v>451</v>
+      </c>
+      <c r="F139" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140" t="s">
+        <v>417</v>
+      </c>
+      <c r="D140" t="s">
+        <v>451</v>
+      </c>
+      <c r="E140" t="s">
+        <v>451</v>
+      </c>
+      <c r="F140" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" t="s">
+        <v>274</v>
+      </c>
+      <c r="C141" t="s">
+        <v>418</v>
+      </c>
+      <c r="D141" t="s">
+        <v>456</v>
+      </c>
+      <c r="E141" t="s">
+        <v>451</v>
+      </c>
+      <c r="F141" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" t="s">
+        <v>312</v>
+      </c>
+      <c r="D142" t="s">
+        <v>452</v>
+      </c>
+      <c r="E142" t="s">
+        <v>452</v>
+      </c>
+      <c r="F142" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" t="s">
+        <v>276</v>
+      </c>
+      <c r="C143" t="s">
+        <v>419</v>
+      </c>
+      <c r="D143" t="s">
+        <v>451</v>
+      </c>
+      <c r="E143" t="s">
+        <v>451</v>
+      </c>
+      <c r="F143" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" t="s">
+        <v>420</v>
+      </c>
+      <c r="D144" t="s">
+        <v>451</v>
+      </c>
+      <c r="E144" t="s">
+        <v>452</v>
+      </c>
+      <c r="F144" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" t="s">
+        <v>452</v>
+      </c>
+      <c r="E145" t="s">
+        <v>458</v>
+      </c>
+      <c r="F145" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>126</v>
+      </c>
+      <c r="B146" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" t="s">
+        <v>344</v>
+      </c>
+      <c r="D146" t="s">
+        <v>451</v>
+      </c>
+      <c r="E146" t="s">
+        <v>451</v>
+      </c>
+      <c r="F146" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147" t="s">
+        <v>421</v>
+      </c>
+      <c r="D147" t="s">
+        <v>452</v>
+      </c>
+      <c r="E147" t="s">
+        <v>452</v>
+      </c>
+      <c r="F147" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148" t="s">
+        <v>394</v>
+      </c>
+      <c r="D148" t="s">
+        <v>453</v>
+      </c>
+      <c r="E148" t="s">
+        <v>452</v>
+      </c>
+      <c r="F148" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>111</v>
+      </c>
+      <c r="B149" t="s">
+        <v>280</v>
+      </c>
+      <c r="C149" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149" t="s">
+        <v>453</v>
+      </c>
+      <c r="E149" t="s">
+        <v>456</v>
+      </c>
+      <c r="F149" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" t="s">
+        <v>281</v>
+      </c>
+      <c r="C150" t="s">
+        <v>423</v>
+      </c>
+      <c r="D150" t="s">
+        <v>357</v>
+      </c>
+      <c r="E150" t="s">
+        <v>357</v>
+      </c>
+      <c r="F150" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151" t="s">
+        <v>282</v>
+      </c>
+      <c r="C151" t="s">
+        <v>424</v>
+      </c>
+      <c r="D151" t="s">
+        <v>357</v>
+      </c>
+      <c r="E151" t="s">
+        <v>357</v>
+      </c>
+      <c r="F151" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" t="s">
+        <v>425</v>
+      </c>
+      <c r="D152" t="s">
+        <v>452</v>
+      </c>
+      <c r="E152" t="s">
+        <v>451</v>
+      </c>
+      <c r="F152" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" t="s">
+        <v>426</v>
+      </c>
+      <c r="D153" t="s">
+        <v>454</v>
+      </c>
+      <c r="E153" t="s">
+        <v>452</v>
+      </c>
+      <c r="F153" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" t="s">
+        <v>285</v>
+      </c>
+      <c r="C154" t="s">
+        <v>427</v>
+      </c>
+      <c r="D154" t="s">
+        <v>456</v>
+      </c>
+      <c r="E154" t="s">
+        <v>456</v>
+      </c>
+      <c r="F154" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" t="s">
+        <v>286</v>
+      </c>
+      <c r="C155" t="s">
+        <v>428</v>
+      </c>
+      <c r="D155" t="s">
+        <v>452</v>
+      </c>
+      <c r="E155" t="s">
+        <v>455</v>
+      </c>
+      <c r="F155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>109</v>
+      </c>
+      <c r="B156" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" t="s">
+        <v>429</v>
+      </c>
+      <c r="D156" t="s">
+        <v>451</v>
+      </c>
+      <c r="E156" t="s">
+        <v>451</v>
+      </c>
+      <c r="F156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>135</v>
+      </c>
+      <c r="B157" t="s">
+        <v>288</v>
+      </c>
+      <c r="C157" t="s">
+        <v>398</v>
+      </c>
+      <c r="D157" t="s">
+        <v>451</v>
+      </c>
+      <c r="E157" t="s">
+        <v>452</v>
+      </c>
+      <c r="F157" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>136</v>
+      </c>
+      <c r="B158" t="s">
+        <v>289</v>
+      </c>
+      <c r="C158" t="s">
+        <v>430</v>
+      </c>
+      <c r="D158" t="s">
+        <v>454</v>
+      </c>
+      <c r="E158" t="s">
+        <v>456</v>
+      </c>
+      <c r="F158" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" t="s">
+        <v>431</v>
+      </c>
+      <c r="D159" t="s">
+        <v>453</v>
+      </c>
+      <c r="E159" t="s">
+        <v>452</v>
+      </c>
+      <c r="F159" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" t="s">
+        <v>432</v>
+      </c>
+      <c r="D160" t="s">
+        <v>451</v>
+      </c>
+      <c r="E160" t="s">
+        <v>451</v>
+      </c>
+      <c r="F160" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" t="s">
+        <v>453</v>
+      </c>
+      <c r="F161" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>293</v>
+      </c>
+      <c r="C162" t="s">
+        <v>348</v>
+      </c>
+      <c r="D162" t="s">
+        <v>451</v>
+      </c>
+      <c r="E162" t="s">
+        <v>452</v>
+      </c>
+      <c r="F162" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" t="s">
+        <v>294</v>
+      </c>
+      <c r="C163" t="s">
+        <v>434</v>
+      </c>
+      <c r="D163" t="s">
+        <v>451</v>
+      </c>
+      <c r="E163" t="s">
+        <v>453</v>
+      </c>
+      <c r="F163" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" t="s">
+        <v>295</v>
+      </c>
+      <c r="C164" t="s">
+        <v>435</v>
+      </c>
+      <c r="D164" t="s">
+        <v>451</v>
+      </c>
+      <c r="E164" t="s">
+        <v>451</v>
+      </c>
+      <c r="F164" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>76</v>
+      </c>
+      <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="s">
+        <v>436</v>
+      </c>
+      <c r="D165" t="s">
+        <v>451</v>
+      </c>
+      <c r="E165" t="s">
+        <v>455</v>
+      </c>
+      <c r="F165" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" t="s">
+        <v>437</v>
+      </c>
+      <c r="D166" t="s">
+        <v>457</v>
+      </c>
+      <c r="E166" t="s">
+        <v>456</v>
+      </c>
+      <c r="F166" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>79</v>
+      </c>
+      <c r="B167" t="s">
+        <v>298</v>
+      </c>
+      <c r="C167" t="s">
+        <v>438</v>
+      </c>
+      <c r="D167" t="s">
+        <v>452</v>
+      </c>
+      <c r="E167" t="s">
+        <v>452</v>
+      </c>
+      <c r="F167" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" t="s">
+        <v>299</v>
+      </c>
+      <c r="C168" t="s">
+        <v>439</v>
+      </c>
+      <c r="D168" t="s">
+        <v>453</v>
+      </c>
+      <c r="E168" t="s">
+        <v>456</v>
+      </c>
+      <c r="F168" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>143</v>
+      </c>
+      <c r="B169" t="s">
+        <v>300</v>
+      </c>
+      <c r="C169" t="s">
+        <v>440</v>
+      </c>
+      <c r="D169" t="s">
+        <v>451</v>
+      </c>
+      <c r="E169" t="s">
+        <v>452</v>
+      </c>
+      <c r="F169" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" t="s">
+        <v>301</v>
+      </c>
+      <c r="C170" t="s">
+        <v>441</v>
+      </c>
+      <c r="D170" t="s">
+        <v>454</v>
+      </c>
+      <c r="E170" t="s">
+        <v>454</v>
+      </c>
+      <c r="F170" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>145</v>
+      </c>
+      <c r="B171" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>442</v>
+      </c>
+      <c r="D171" t="s">
+        <v>451</v>
+      </c>
+      <c r="E171" t="s">
+        <v>451</v>
+      </c>
+      <c r="F171" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>146</v>
+      </c>
+      <c r="B172" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" t="s">
+        <v>443</v>
+      </c>
+      <c r="D172" t="s">
+        <v>451</v>
+      </c>
+      <c r="E172" t="s">
+        <v>452</v>
+      </c>
+      <c r="F172" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" t="s">
+        <v>304</v>
+      </c>
+      <c r="C173" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" t="s">
+        <v>451</v>
+      </c>
+      <c r="E173" t="s">
+        <v>451</v>
+      </c>
+      <c r="F173" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>76</v>
+      </c>
+      <c r="B174" t="s">
+        <v>305</v>
+      </c>
+      <c r="C174" t="s">
+        <v>445</v>
+      </c>
+      <c r="D174" t="s">
+        <v>456</v>
+      </c>
+      <c r="E174" t="s">
+        <v>451</v>
+      </c>
+      <c r="F174" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>148</v>
+      </c>
+      <c r="B175" t="s">
+        <v>306</v>
+      </c>
+      <c r="C175" t="s">
+        <v>446</v>
+      </c>
+      <c r="D175" t="s">
+        <v>456</v>
+      </c>
+      <c r="E175" t="s">
+        <v>453</v>
+      </c>
+      <c r="F175" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>114</v>
+      </c>
+      <c r="B176" t="s">
+        <v>307</v>
+      </c>
+      <c r="C176" t="s">
+        <v>447</v>
+      </c>
+      <c r="D176" t="s">
+        <v>452</v>
+      </c>
+      <c r="E176" t="s">
+        <v>452</v>
+      </c>
+      <c r="F176" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>149</v>
+      </c>
+      <c r="B177" t="s">
+        <v>300</v>
+      </c>
+      <c r="C177" t="s">
+        <v>448</v>
+      </c>
+      <c r="D177" t="s">
+        <v>453</v>
+      </c>
+      <c r="E177" t="s">
+        <v>451</v>
+      </c>
+      <c r="F177" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>150</v>
+      </c>
+      <c r="B178" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" t="s">
+        <v>449</v>
+      </c>
+      <c r="D178" t="s">
+        <v>452</v>
+      </c>
+      <c r="E178" t="s">
+        <v>452</v>
+      </c>
+      <c r="F178" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" t="s">
+        <v>309</v>
+      </c>
+      <c r="C179" t="s">
+        <v>450</v>
+      </c>
+      <c r="D179" t="s">
+        <v>451</v>
+      </c>
+      <c r="E179" t="s">
+        <v>456</v>
+      </c>
+      <c r="F179" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>151</v>
+      </c>
+      <c r="B180" t="s">
+        <v>310</v>
+      </c>
+      <c r="C180" t="s">
+        <v>357</v>
+      </c>
+      <c r="D180" t="s">
+        <v>451</v>
+      </c>
+      <c r="E180" t="s">
+        <v>458</v>
+      </c>
+      <c r="F180" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" t="s">
+        <v>311</v>
+      </c>
+      <c r="C181" t="s">
+        <v>357</v>
+      </c>
+      <c r="D181" t="s">
+        <v>452</v>
+      </c>
+      <c r="E181" t="s">
+        <v>455</v>
+      </c>
+      <c r="F181" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/datos_inmobiliarios.xlsx
+++ b/datos_inmobiliarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="163">
   <si>
     <t>Precio</t>
   </si>
@@ -43,24 +43,24 @@
     <t>San Pedro, Carabayllo, Perú</t>
   </si>
   <si>
+    <t>Playa Las Totoritas, Cañete, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Mala, Cañete</t>
+  </si>
+  <si>
+    <t>Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
+  </si>
+  <si>
+    <t>Santiago De Surco, Lima</t>
+  </si>
+  <si>
     <t>Bahia, Pueblo Libre, Perú</t>
   </si>
   <si>
     <t>San Borja, Lima</t>
   </si>
   <si>
-    <t>Playa Las Totoritas, Cañete, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Mala, Cañete</t>
-  </si>
-  <si>
-    <t>Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
-  </si>
-  <si>
-    <t>Santiago De Surco, Lima</t>
-  </si>
-  <si>
     <t>Rinconada Baja, Lima</t>
   </si>
   <si>
@@ -73,433 +73,436 @@
     <t>Punta Corrientes, Cerro Azul, Perú</t>
   </si>
   <si>
+    <t>Urb Portada De La Planicie, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Naplo, Pucusana, Perú</t>
+  </si>
+  <si>
+    <t>Calle Bahía 200-298, Cuadra 2, Co. La Molina Real, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>Lomas De La Molina Vieja, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Santa Cruz De Flores, Cañete, Lima, Per</t>
+  </si>
+  <si>
+    <t>El Sol De La Molina, Lima</t>
+  </si>
+  <si>
+    <t>Santa María, Huaura, Lima, Per</t>
+  </si>
+  <si>
+    <t>José María Quiroga 339, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Cerros De Camacho, Santiago De Surco, Lima, Lima, Peru</t>
+  </si>
+  <si>
+    <t>Valle Hermoso, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Calle Campo Verde 101-199, Cuadra 1, Ur. Campo Verde, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>Calle Las Dalias 338-368, Cuadra 3, Ur. Valle Hermoso Residencial Etapa Ii, Santiago De Surco, Lima, 15023, Per</t>
+  </si>
+  <si>
+    <t>Avenida San Borja Norte 1234, Lima, Perú</t>
+  </si>
+  <si>
+    <t>La Planicie, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Jirón El Mástil 515-577, Cuadra 5, Ur. Las Lagunas De La Molina Etapa Iii, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>Calle General Silva 685, Cuadra 6, Ur. San Antonio, Miraflores, Lima, 15047, Per</t>
+  </si>
+  <si>
+    <t>Jirón Coronel Enrique Campos, Surco, Perú</t>
+  </si>
+  <si>
+    <t>La Floristería, Jirón Simón Salguero, Ur. Residencial El Rosal, Santiago De Surco, Lima, 15048, Per</t>
+  </si>
+  <si>
     <t>Jirón Paseo De Los Eucaliptos 460, La Molina, Perú</t>
   </si>
   <si>
-    <t>Jirón Aragón 178, Pueblo Libre, Perú</t>
+    <t>Av. Rinconada Del Lago 915, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Viña Del Mar 131, Perú</t>
+  </si>
+  <si>
+    <t>Calle Pastor Sevilla, Chorrillos, Perú</t>
+  </si>
+  <si>
+    <t>Ricardo Angulo, San Isidro, Lima, Lima, Peru</t>
+  </si>
+  <si>
+    <t>Rinconada Alta, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Las Lagunas, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>La Planicie, 1a Etapa, 12, La Molina, Lima, Lima, Peru</t>
+  </si>
+  <si>
+    <t>Calle German Schreiber, Avenida Dos De Mayo, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Calle German Schreiber Gulsmanco 210, Calle German Schreiber Gulsmanco, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Pando, Lima</t>
+  </si>
+  <si>
+    <t>Jirón Cayaltí 241-279, Cuadra 2, Ur. Centro Comercial De Monterrico, Santiago De Surco, Lima, 15023, Per</t>
+  </si>
+  <si>
+    <t>Juan De La Fuente 905, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Urb Paso Chico, Paseo Paso Chico, Lurín, Perú</t>
+  </si>
+  <si>
+    <t>Pasaje Santa Rosa 865 Chaclacayo, Los Pinos, Los Halcones, Chaclacayo, Perú</t>
   </si>
   <si>
     <t>Daniel Urrea 251, Chorrillos, Lima 15063, Perú</t>
   </si>
   <si>
-    <t>La Planicie, La Molina, Perú</t>
+    <t>Carlos Monge Medrano, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Cercado De Lima, Lima</t>
   </si>
   <si>
     <t>Calle Baltazar La Torre 3, San Isidro, Perú</t>
   </si>
   <si>
-    <t>Cerros De Camacho, Santiago De Surco, Lima, Lima, Peru</t>
-  </si>
-  <si>
-    <t>Calle Bahía 200-298, Cuadra 2, Co. La Molina Real, La Molina, Lima, 15026, Per</t>
-  </si>
-  <si>
-    <t>Lomas De La Molina Vieja, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Jirón Coronel Enrique Campos, Surco, Perú</t>
-  </si>
-  <si>
-    <t>Rinconada Alta, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Las Lagunas, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Santa Cruz De Flores, Cañete, Lima, Per</t>
-  </si>
-  <si>
-    <t>La Planicie, 1a Etapa, 12, La Molina, Lima, Lima, Peru</t>
-  </si>
-  <si>
-    <t>Calle Campo Verde 101-199, Cuadra 1, Ur. Campo Verde, La Molina, Lima, 15026, Per</t>
-  </si>
-  <si>
-    <t>José María Quiroga 339, Santiago De Surco, Perú</t>
-  </si>
-  <si>
-    <t>Calle Las Dalias 338-368, Cuadra 3, Ur. Valle Hermoso Residencial Etapa Ii, Santiago De Surco, Lima, 15023, Per</t>
-  </si>
-  <si>
-    <t>El Sol De La Molina, Lima</t>
-  </si>
-  <si>
-    <t>Jirón El Mástil 515-577, Cuadra 5, Ur. Las Lagunas De La Molina Etapa Iii, La Molina, Lima, 15026, Per</t>
-  </si>
-  <si>
-    <t>Valle Hermoso, Santiago De Surco, Perú</t>
-  </si>
-  <si>
-    <t>Urb Paso Chico, Paseo Paso Chico, Lurín, Perú</t>
-  </si>
-  <si>
-    <t>Ricardo Angulo, San Isidro, Lima, Lima, Peru</t>
-  </si>
-  <si>
-    <t>Avenida San Borja Norte 1234, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Calle Pastor Sevilla, Chorrillos, Perú</t>
+    <t>Mala, Cañete, Lima, Per</t>
+  </si>
+  <si>
+    <t>Calle Los Libertadores, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Jirón Eduardo Lizarzaburu, San Borja, Perú</t>
+  </si>
+  <si>
+    <t>Orrantia, Lima</t>
+  </si>
+  <si>
+    <t>Av. Andrés Aramburú, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Alameda Manuel Prado Ugarteche 400-478, Cuadra 4, Ot. Universidad Nacional Agraria, La Molina, Lima, 15024, Per</t>
+  </si>
+  <si>
+    <t>La Encantada 130, Rinconada Del Lago, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Rio De Janeiro 200, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Las Fresas, Lima 15048, Perú</t>
+  </si>
+  <si>
+    <t>Alberto Bartón, Santa Catalina, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Monte Álamo 255, Surco, Perú</t>
   </si>
   <si>
     <t>Avenida Las Casuarinas, Santiago De Surco, Perú</t>
   </si>
   <si>
-    <t>Calle General Silva 685, Cuadra 6, Ur. San Antonio, Miraflores, Lima, 15047, Per</t>
-  </si>
-  <si>
-    <t>Santa María, Huaura, Lima, Per</t>
-  </si>
-  <si>
-    <t>La Floristería, Jirón Simón Salguero, Ur. Residencial El Rosal, Santiago De Surco, Lima, 15048, Per</t>
+    <t>Avenida Paseo La Castellana 356, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Calle Neiser Llacsa Arce, Lima, Perú</t>
   </si>
   <si>
     <t>Las Caobas, La Molina, Perú</t>
   </si>
   <si>
-    <t>Jirón Eduardo Lizarzaburu, San Borja, Perú</t>
-  </si>
-  <si>
-    <t>Camino Del Bosque, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Av. Rinconada Del Lago 915, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Monte Álamo 255, Surco, Perú</t>
+    <t>Pucusana, Perú</t>
   </si>
   <si>
     <t>Calle Castilla La Vieja, Surco, Perú</t>
   </si>
   <si>
-    <t>Viña Del Mar 131, Perú</t>
-  </si>
-  <si>
-    <t>Cercado De Lima, Lima</t>
-  </si>
-  <si>
-    <t>Maranga, San Miguel, Perú</t>
-  </si>
-  <si>
-    <t>Calle German Schreiber, Avenida Dos De Mayo, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Calle German Schreiber Gulsmanco 210, Calle German Schreiber Gulsmanco, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Jirón Cayaltí 241-279, Cuadra 2, Ur. Centro Comercial De Monterrico, Santiago De Surco, Lima, 15023, Per</t>
-  </si>
-  <si>
-    <t>Carlos Monge Medrano, Santiago De Surco, Perú</t>
-  </si>
-  <si>
-    <t>Juan De La Fuente 905, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Mala, Cañete, Lima, Per</t>
-  </si>
-  <si>
-    <t>Alameda Manuel Prado Ugarteche 400-478, Cuadra 4, Ot. Universidad Nacional Agraria, La Molina, Lima, 15024, Per</t>
-  </si>
-  <si>
-    <t>Rio De Janeiro 200, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Alberto Bartón, Santa Catalina, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Pando, Lima</t>
-  </si>
-  <si>
-    <t>La Encantada 130, Rinconada Del Lago, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Las Fresas, Lima 15048, Perú</t>
-  </si>
-  <si>
-    <t>La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Calle Neiser Llacsa Arce, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Naplo, Pucusana, Perú</t>
-  </si>
-  <si>
-    <t>Pasaje Santa Rosa 865 Chaclacayo, Los Pinos, Los Halcones, Chaclacayo, Perú</t>
-  </si>
-  <si>
-    <t>Orrantia, Lima</t>
-  </si>
-  <si>
-    <t>Avenida Paseo La Castellana 356, Santiago De Surco, Perú</t>
-  </si>
-  <si>
-    <t>Calle Los Libertadores, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Pucusana, Perú</t>
-  </si>
-  <si>
-    <t>Av. Andrés Aramburú, San Isidro, Perú</t>
+    <t>Urb California, Perú</t>
+  </si>
+  <si>
+    <t>Av. Pedro De Osma 417, Barranco, Perú</t>
+  </si>
+  <si>
+    <t>Chorrillos, Lima</t>
+  </si>
+  <si>
+    <t>El Haras 5, La Molina, Perú</t>
   </si>
   <si>
     <t>Calle Pulla De Raymondi, Lima, Perú</t>
   </si>
   <si>
-    <t>Urb California, Perú</t>
-  </si>
-  <si>
-    <t>El Haras 5, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Av. Pedro De Osma 417, Barranco, Perú</t>
-  </si>
-  <si>
-    <t>Chorrillos, Lima</t>
+    <t>Pachacamac, Lima</t>
   </si>
   <si>
     <t>Avenida Juan De Aliaga 400, Magdalena Del Mar, Perú</t>
   </si>
   <si>
-    <t>Pachacamac, Lima</t>
+    <t>Ivan Huerta, Cercado De Lima, Perú</t>
+  </si>
+  <si>
+    <t>Magdalena Del Mar, Lima</t>
+  </si>
+  <si>
+    <t>Surquillo, Lima</t>
   </si>
   <si>
     <t>Sevilla 115, Miraflores, Perú</t>
   </si>
   <si>
-    <t>Magdalena Del Mar, Lima</t>
-  </si>
-  <si>
-    <t>Ivan Huerta, Cercado De Lima, Perú</t>
-  </si>
-  <si>
-    <t>Surquillo, Lima</t>
+    <t>Jirón Madreselva, Surco, Perú</t>
+  </si>
+  <si>
+    <t>La Molina Vieja, La Molina, Perú</t>
   </si>
   <si>
     <t>Jirón Los Molles 267, Santiago De Surco, Perú</t>
   </si>
   <si>
-    <t>Jirón Madreselva, Surco, Perú</t>
-  </si>
-  <si>
     <t>Av. Belén, San Isidro, Perú</t>
   </si>
   <si>
+    <t>Punta Negra, Perú</t>
+  </si>
+  <si>
     <t>Cloegio Pamer, Avenida Los Alameda Horizontes 710, Cuadra 7, Ur. Los Cedros De Villa Etapa Iv, Chorrillos, Lima, 15067, Per</t>
   </si>
   <si>
-    <t>La Molina Vieja, La Molina, Perú</t>
-  </si>
-  <si>
     <t>Avenida Manuel Prado Ugarteche, La Molina, Perú</t>
   </si>
   <si>
+    <t>Surco, Perú</t>
+  </si>
+  <si>
+    <t>Jirón Maximiliano Carranza 856-898, Cuadra 8, Ur. San Juan Sector D, San Juan De Miraflores, Lima, 15801, Per</t>
+  </si>
+  <si>
     <t>Los Canarios, La Pradera, Lima, Perú</t>
   </si>
   <si>
-    <t>Jirón Maximiliano Carranza 856-898, Cuadra 8, Ur. San Juan Sector D, San Juan De Miraflores, Lima, 15801, Per</t>
-  </si>
-  <si>
-    <t>Surco, Perú</t>
+    <t>Capilla San Francisco De Asís, Avenida Buenos Aires, Chorrillos, Perú</t>
+  </si>
+  <si>
+    <t>San Martin De Porres, Lima</t>
   </si>
   <si>
     <t>Alameda El Triangulo, Urb Las Brisas De Villa, Lima, Perú</t>
   </si>
   <si>
+    <t>Jirón Batalla De Junin 300, Barranco, Perú</t>
+  </si>
+  <si>
+    <t>San Juan De Miraflores, Lima</t>
+  </si>
+  <si>
+    <t>Geronimo De Aliaga Norte, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Ancon, Lima</t>
+  </si>
+  <si>
+    <t>Pueblo Libre, Lima</t>
+  </si>
+  <si>
+    <t>Calle Eduardo H. La Torre Villamonte 205, Urb El Rosal, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Calle Valle Riestra, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Aurelio Fernandez Concha, Miraflores, Perú</t>
+  </si>
+  <si>
+    <t>Cerezos 229, Micaela Bastidas, Los Olivos, Lima Province, Perú</t>
+  </si>
+  <si>
+    <t>Alameda Domingo Tristán Y Moscoso 520, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>El Paraiso, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>León De La Fuente, Magdalena Del Mar, Perú</t>
+  </si>
+  <si>
+    <t>Av. Ayacucho 1429, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>La Planicie, Lima</t>
+  </si>
+  <si>
+    <t>Avenida Manuel Olguín, Surco, Perú</t>
+  </si>
+  <si>
+    <t>Maranga, Lima</t>
+  </si>
+  <si>
+    <t>Calle Pedro Canga, San Isidro, Perú</t>
+  </si>
+  <si>
     <t>Calle Arias Araguez 601-699, Cuadra 6, Ur. San Antonio, Miraflores, Lima, 15047, Per</t>
   </si>
   <si>
-    <t>San Martin De Porres, Lima</t>
-  </si>
-  <si>
-    <t>San Juan De Miraflores, Lima</t>
-  </si>
-  <si>
-    <t>Pueblo Libre, Lima</t>
-  </si>
-  <si>
-    <t>Ancon, Lima</t>
-  </si>
-  <si>
-    <t>Alameda Domingo Tristán Y Moscoso 520, Santiago De Surco, Perú</t>
-  </si>
-  <si>
-    <t>Calle Valle Riestra, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Jirón Batalla De Junin 300, Barranco, Perú</t>
-  </si>
-  <si>
-    <t>Cerezos 229, Micaela Bastidas, Los Olivos, Lima Province, Perú</t>
-  </si>
-  <si>
-    <t>Geronimo De Aliaga Norte, Surco, Perú</t>
+    <t>Villa El Salvador, Lima</t>
+  </si>
+  <si>
+    <t>Los Sauces, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Av. Gral. Francisco Valle Riestra 595, San Isidro 15076, Perú</t>
+  </si>
+  <si>
+    <t>Calle Los Pinos, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Jirón Bartolomé De Las Casas 400-488, Cuadra 4, Ur. Pablo Canepa, La Molina, Lima, 15012, Per</t>
+  </si>
+  <si>
+    <t>Club De Regatas "lima" · Filial La Cantuta, Circunvalacion, Lurigancho-chosica, Perú</t>
+  </si>
+  <si>
+    <t>Jirón Los Alamos 183, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Jirón Daniel Carrión 585, Magdalena Del Mar, Perú</t>
+  </si>
+  <si>
+    <t>Av. Pedro De Osma, Barranco, Perú</t>
+  </si>
+  <si>
+    <t>Calle General La Fuente 165, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Pasaje Los Lirios 192, Lurigancho-chosica, Perú</t>
+  </si>
+  <si>
+    <t>Playa La Encontrada, Asia, Perú</t>
+  </si>
+  <si>
+    <t>Las Higueras 200, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Las Palmas, Asia, Perú</t>
+  </si>
+  <si>
+    <t>Via Láctea 205, Santiago De Surco 15023, Perú</t>
+  </si>
+  <si>
+    <t>Batallon Tarma Surco, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Av. Bolívar, Cieneguilla, Perú</t>
+  </si>
+  <si>
+    <t>Jr. Hawai 1, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Tercera Etapa, Cieneguilla, Perú</t>
+  </si>
+  <si>
+    <t>Tambo Viejo, Cieneguilla, Perú</t>
+  </si>
+  <si>
+    <t>Calle Los Manzanos 315, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>El Olivar Desarrolladora, Raymundo Morales De La Torre, San Isidro, Lima, Peru</t>
+  </si>
+  <si>
+    <t>Av. Alejandro Iglesias 725, Chorrillos, Perú</t>
+  </si>
+  <si>
+    <t>Purus 170, Rímac, Perú</t>
+  </si>
+  <si>
+    <t>San Antonio, Lima</t>
+  </si>
+  <si>
+    <t>La Planicie, Lima, Perú</t>
+  </si>
+  <si>
+    <t>Jirón Juan De La Torre 200-222, Cuadra 2, Ur. Valle Hermoso Este, Santiago De Surco, Lima, 15023, Per</t>
   </si>
   <si>
     <t>Ricardo Palma, Urb Covima, La Molina, Perú</t>
   </si>
   <si>
-    <t>Aurelio Fernandez Concha, Miraflores, Perú</t>
-  </si>
-  <si>
-    <t>Maranga, Lima</t>
-  </si>
-  <si>
-    <t>Calle Pedro Canga, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Calle Eduardo H. La Torre Villamonte 205, Urb El Rosal, Lima, Perú</t>
-  </si>
-  <si>
-    <t>El Paraiso, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>León De La Fuente, Magdalena Del Mar, Perú</t>
-  </si>
-  <si>
-    <t>Avenida Manuel Olguín, Surco, Perú</t>
-  </si>
-  <si>
-    <t>Los Sauces, Santiago De Surco, Perú</t>
-  </si>
-  <si>
-    <t>Av. Ayacucho 1429, Santiago De Surco, Perú</t>
-  </si>
-  <si>
-    <t>Calle Los Pinos, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Jirón Los Alamos 183, Lima, Perú</t>
-  </si>
-  <si>
-    <t>La Planicie, Lima</t>
-  </si>
-  <si>
-    <t>Calle General La Fuente 165, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Av. Gral. Francisco Valle Riestra 595, San Isidro 15076, Perú</t>
-  </si>
-  <si>
-    <t>Villa El Salvador, Lima</t>
-  </si>
-  <si>
-    <t>Av. Pedro De Osma, Barranco, Perú</t>
-  </si>
-  <si>
-    <t>Jirón Daniel Carrión 585, Magdalena Del Mar, Perú</t>
-  </si>
-  <si>
-    <t>Jirón Bartolomé De Las Casas 400-488, Cuadra 4, Ur. Pablo Canepa, La Molina, Lima, 15012, Per</t>
-  </si>
-  <si>
-    <t>Club De Regatas "lima" · Filial La Cantuta, Circunvalacion, Lurigancho-chosica, Perú</t>
-  </si>
-  <si>
-    <t>Playa La Encontrada, Asia, Perú</t>
-  </si>
-  <si>
-    <t>Pasaje Los Lirios 192, Lurigancho-chosica, Perú</t>
-  </si>
-  <si>
-    <t>Avenida Virgen Del Carmen, Ur. Pro Etapa Vii, San Martín De Porres, Lima, 15113, Per</t>
-  </si>
-  <si>
-    <t>Av. Alejandro Iglesias 725, Chorrillos, Perú</t>
-  </si>
-  <si>
-    <t>Purus 170, Rímac, Perú</t>
-  </si>
-  <si>
-    <t>Via Láctea 205, Santiago De Surco 15023, Perú</t>
-  </si>
-  <si>
-    <t>Batallon Tarma Surco, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Tambo Viejo, Cieneguilla, Perú</t>
+    <t>Jirón Batallón Callao Norte, Cercado De Lima, Perú</t>
+  </si>
+  <si>
+    <t>Santa Cruz, Lima</t>
   </si>
   <si>
     <t>El Cascajal, Jirón El Cascajal, Surco, Perú</t>
   </si>
   <si>
-    <t>Jirón Juan De La Torre 200-222, Cuadra 2, Ur. Valle Hermoso Este, Santiago De Surco, Lima, 15023, Per</t>
-  </si>
-  <si>
-    <t>El Olivar Desarrolladora, Raymundo Morales De La Torre, San Isidro, Lima, Peru</t>
-  </si>
-  <si>
-    <t>La Planicie, Lima, Perú</t>
-  </si>
-  <si>
-    <t>Calle Los Manzanos 315, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Av. Bolívar, Cieneguilla, Perú</t>
-  </si>
-  <si>
-    <t>San Antonio, Lima</t>
-  </si>
-  <si>
-    <t>Jirón Batallón Callao Norte, Cercado De Lima, Perú</t>
-  </si>
-  <si>
-    <t>Santa Cruz, Lima</t>
-  </si>
-  <si>
     <t>Conde De La Vega Del Ren, Lima, Perú</t>
   </si>
   <si>
-    <t>Tercera Etapa, Cieneguilla, Perú</t>
-  </si>
-  <si>
     <t>El Horizonte 366, La Molina, Perú</t>
   </si>
   <si>
     <t>Avenida Los Frutales, La Molina, Perú</t>
   </si>
   <si>
-    <t>Playa Las Lomas, Cerro Azul, Perú</t>
-  </si>
-  <si>
     <t>Av. Manuel Villarán 184, Lima, Perú</t>
   </si>
   <si>
+    <t>Calle El Montículo 100-198, Cuadra 1, Ur. La Planicie, La Molina, Lima, 15026, Per</t>
+  </si>
+  <si>
+    <t>El Monticulo, La Molina, Perú</t>
+  </si>
+  <si>
+    <t>Ca. John Hassinger, Cercado De Lima, Perú</t>
+  </si>
+  <si>
+    <t>Calle Jose Granda, San Isidro, Perú</t>
+  </si>
+  <si>
     <t>Jirón Viña Lariena 200, Santiago De Surco, Perú</t>
   </si>
   <si>
-    <t>Calle El Montículo 100-198, Cuadra 1, Ur. La Planicie, La Molina, Lima, 15026, Per</t>
-  </si>
-  <si>
-    <t>El Monticulo, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>Ca. John Hassinger, Cercado De Lima, Perú</t>
-  </si>
-  <si>
-    <t>Calle Jose Granda, San Isidro, Perú</t>
-  </si>
-  <si>
-    <t>Las Palmas, Asia, Perú</t>
-  </si>
-  <si>
     <t>Urb Rinconada Alta Etapa 2, La Molina, Perú</t>
   </si>
   <si>
+    <t>Jiron Cerro San Francisco 522 Las Casuarinas Surco, Jirón Cerro San Francisco, Santiago De Surco, Perú</t>
+  </si>
+  <si>
+    <t>Residencial Praderas De Pariachi Iii Etapa, Calle 1, Ate, Perú</t>
+  </si>
+  <si>
+    <t>San Bartolo, Lima</t>
+  </si>
+  <si>
+    <t>Calle José Dionisio Anchorena, San Isidro, Perú</t>
+  </si>
+  <si>
+    <t>Calle Carlos Graña, San Isidro, Perú</t>
+  </si>
+  <si>
     <t>Calle Arica, Miraflores, Perú</t>
   </si>
   <si>
-    <t>Jr. Hawai 1, La Molina, Perú</t>
-  </si>
-  <si>
-    <t>C. Jr. Pumacahua Brigadier, Jesús María, Perú</t>
-  </si>
-  <si>
-    <t>Angélica Palma 184, San Miguel, Perú</t>
-  </si>
-  <si>
-    <t>La Chalana, La Molina, Perú</t>
+    <t>M2, San Juan De Lurigancho 15427, Perú</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>5255733</v>
+        <v>5271826</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -916,7 +919,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>4447159</v>
+        <v>4460776</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -933,7 +936,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5120971</v>
+        <v>5136651</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -949,99 +952,99 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>550000</v>
-      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
-        <v>850000</v>
-      </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8">
+        <v>340000</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9">
+        <v>699000</v>
+      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>340000</v>
+        <v>550000</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>699000</v>
+        <v>850000</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1080,36 +1083,36 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>387188</v>
+        <v>750000</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>178</v>
+        <v>700</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>750000</v>
+        <v>387188</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>700</v>
+        <v>178</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1165,101 +1168,101 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1353450</v>
+        <v>850000</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>618</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>390000</v>
+        <v>700000</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>490000</v>
+        <v>405000</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1250000</v>
+        <v>570000</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1000000</v>
+        <v>399000</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1220000</v>
+        <v>1047000</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1267,101 +1270,101 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>940000</v>
+        <v>253000</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>563</v>
+        <v>679</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>570000</v>
+        <v>595000</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>399000</v>
+        <v>97000</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>405000</v>
+        <v>615000</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>680000</v>
+        <v>940000</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29">
-        <v>300</v>
+        <v>563</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1047000</v>
+        <v>799000</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>595</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1369,33 +1372,33 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2100000</v>
+        <v>410000</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>980000</v>
+        <v>720000</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>461</v>
+        <v>600</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -1403,98 +1406,98 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>253000</v>
+        <v>800000</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>679</v>
+        <v>480</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3600000</v>
+        <v>253900</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>410000</v>
+        <v>1250000</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>615000</v>
+        <v>600000</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
       <c r="C36">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2100000</v>
+        <v>850000</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>481</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>720000</v>
+        <v>680000</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1505,121 +1508,121 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1700000</v>
+        <v>399500</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>595000</v>
+        <v>1220000</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>600000</v>
+        <v>1353450</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>799000</v>
+        <v>1400000</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>595</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1200000</v>
+        <v>475000</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2100000</v>
+        <v>540000</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>592</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>425000</v>
+        <v>389000</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1627,7 +1630,7 @@
         <v>625000</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>360</v>
@@ -1641,220 +1644,220 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>800000</v>
+        <v>2100000</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>389000</v>
+        <v>980000</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>579800</v>
+        <v>3600000</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>253900</v>
+        <v>420000</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>679</v>
+        <v>269</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>850000</v>
+        <v>2100000</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51">
-        <v>481</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>97000</v>
+        <v>1700000</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C52">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>399500</v>
+        <v>260000</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>630000</v>
+        <v>1200000</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>439000</v>
+        <v>2100000</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C55">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
         <v>6</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>399000</v>
+        <v>330000</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>475000</v>
+        <v>549000</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>370000</v>
+        <v>520000</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>415000</v>
+        <v>435000</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -1862,67 +1865,67 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1400000</v>
+        <v>425000</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>540000</v>
+        <v>350000</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61">
-        <v>592</v>
+        <v>300</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>590000</v>
+        <v>490000</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>645000</v>
+        <v>560000</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -1930,104 +1933,104 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>420000</v>
+        <v>590000</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>260000</v>
+        <v>1000000</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>549000</v>
+        <v>1260000</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>409</v>
+        <v>70</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>560000</v>
+        <v>930000</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>520000</v>
+        <v>439000</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1260000</v>
+        <v>1270000</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>70</v>
+        <v>345</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2035,98 +2038,98 @@
         <v>750000</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70">
-        <v>492</v>
+        <v>360</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>695000</v>
+        <v>750000</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>340</v>
+        <v>492</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>325000</v>
+        <v>360000</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>330000</v>
+        <v>695000</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>360000</v>
+        <v>675000</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>435000</v>
+        <v>325000</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C75">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -2134,47 +2137,47 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>675000</v>
+        <v>370000</v>
       </c>
       <c r="B76" t="s">
         <v>66</v>
       </c>
       <c r="C76">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>850000</v>
+        <v>1050000</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C77">
-        <v>618</v>
+        <v>378</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>580000</v>
+        <v>579800</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -2185,84 +2188,84 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>700000</v>
+        <v>590000</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>350000</v>
+        <v>580000</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>1270000</v>
+        <v>630000</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>590000</v>
+        <v>950000</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="D82">
         <v>4</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>930000</v>
+        <v>415000</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -2270,67 +2273,67 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>950000</v>
+        <v>500000</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1050000</v>
+        <v>2500000</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C85">
-        <v>378</v>
+        <v>847</v>
       </c>
       <c r="D85">
         <v>3</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>750000</v>
+        <v>475000</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
       </c>
       <c r="C86">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>465000</v>
+        <v>890000</v>
       </c>
       <c r="B87" t="s">
         <v>76</v>
       </c>
       <c r="C87">
-        <v>312</v>
+        <v>600</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -2338,75 +2341,75 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>500000</v>
+        <v>465000</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>890000</v>
+        <v>1820000</v>
       </c>
       <c r="B89" t="s">
         <v>78</v>
       </c>
       <c r="C89">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2500000</v>
+        <v>1480000</v>
       </c>
       <c r="B90" t="s">
         <v>79</v>
       </c>
       <c r="C90">
-        <v>847</v>
+        <v>423</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>475000</v>
+        <v>540000</v>
       </c>
       <c r="B91" t="s">
         <v>80</v>
       </c>
       <c r="C91">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>1480000</v>
+        <v>320000</v>
       </c>
       <c r="B92" t="s">
         <v>81</v>
       </c>
       <c r="C92">
-        <v>423</v>
+        <v>70</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -2417,87 +2420,87 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>1820000</v>
+        <v>470000</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>825000</v>
+        <v>190000</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>320000</v>
+        <v>825000</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>540000</v>
+        <v>690000</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>190000</v>
+        <v>1200000</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2505,7 +2508,7 @@
         <v>2000000</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2519,16 +2522,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>690000</v>
+        <v>1290000</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -2536,19 +2539,19 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>1290000</v>
+        <v>220000</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100">
-        <v>498</v>
+        <v>264</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2556,7 +2559,7 @@
         <v>618000</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2570,87 +2573,87 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>470000</v>
+        <v>215000</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C102">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="D102">
         <v>5</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>215000</v>
+        <v>399000</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="D103">
         <v>5</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>1200000</v>
+        <v>915000</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>399000</v>
+        <v>500000</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C105">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>915000</v>
+        <v>230000</v>
       </c>
       <c r="B106" t="s">
         <v>92</v>
       </c>
       <c r="C106">
-        <v>540</v>
+        <v>225</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2672,36 +2675,36 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>230000</v>
+        <v>179000</v>
       </c>
       <c r="B108" t="s">
         <v>94</v>
       </c>
       <c r="C108">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>500000</v>
+        <v>240000</v>
       </c>
       <c r="B109" t="s">
         <v>95</v>
       </c>
       <c r="C109">
-        <v>500</v>
+        <v>111</v>
       </c>
       <c r="D109">
         <v>4</v>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2715,72 +2718,72 @@
         <v>600</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>600000</v>
+        <v>2900000</v>
       </c>
       <c r="B111" t="s">
         <v>97</v>
       </c>
       <c r="C111">
-        <v>368</v>
+        <v>951</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>240000</v>
+        <v>188000</v>
       </c>
       <c r="B112" t="s">
         <v>98</v>
       </c>
       <c r="C112">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>188000</v>
+        <v>720000</v>
       </c>
       <c r="B113" t="s">
         <v>99</v>
       </c>
       <c r="C113">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>354000</v>
+        <v>795000</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C114">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -2794,30 +2797,30 @@
         <v>55000</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C115">
         <v>160</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>795000</v>
+        <v>354000</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C116">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -2825,13 +2828,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>286900</v>
+        <v>650000</v>
       </c>
       <c r="B117" t="s">
         <v>102</v>
       </c>
       <c r="C117">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D117">
         <v>7</v>
@@ -2851,21 +2854,21 @@
         <v>507</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>2900000</v>
+        <v>890000</v>
       </c>
       <c r="B119" t="s">
         <v>104</v>
       </c>
       <c r="C119">
-        <v>951</v>
+        <v>497</v>
       </c>
       <c r="D119">
         <v>12</v>
@@ -2885,120 +2888,120 @@
         <v>160</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>720000</v>
+        <v>286900</v>
       </c>
       <c r="B121" t="s">
         <v>106</v>
       </c>
       <c r="C121">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>315000</v>
+        <v>640000</v>
       </c>
       <c r="B122" t="s">
         <v>107</v>
       </c>
       <c r="C122">
-        <v>352</v>
+        <v>512</v>
       </c>
       <c r="D122">
         <v>3</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>890000</v>
+        <v>650000</v>
       </c>
       <c r="B123" t="s">
         <v>108</v>
       </c>
       <c r="C123">
-        <v>497</v>
+        <v>305</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>370000</v>
+        <v>495000</v>
       </c>
       <c r="B124" t="s">
         <v>109</v>
       </c>
       <c r="C124">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="D124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>1700000</v>
+        <v>675000</v>
       </c>
       <c r="B125" t="s">
         <v>110</v>
       </c>
       <c r="C125">
-        <v>550</v>
+        <v>298</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>650000</v>
+        <v>396000</v>
       </c>
       <c r="B126" t="s">
         <v>111</v>
       </c>
       <c r="C126">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="D126">
         <v>4</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>640000</v>
+        <v>370000</v>
       </c>
       <c r="B127" t="s">
         <v>112</v>
       </c>
       <c r="C127">
-        <v>512</v>
+        <v>160</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E127">
         <v>3</v>
@@ -3006,67 +3009,67 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>650000</v>
+        <v>198000</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C128">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>396000</v>
+        <v>1700000</v>
       </c>
       <c r="B129" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C129">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>2000000</v>
+        <v>600000</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>495000</v>
+        <v>168500</v>
       </c>
       <c r="B131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C131">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -3074,98 +3077,98 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>1950000</v>
+        <v>800000</v>
       </c>
       <c r="B132" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C132">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>898000</v>
+        <v>2000000</v>
       </c>
       <c r="B133" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C133">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>4</v>
       </c>
       <c r="E133">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>675000</v>
+        <v>1290000</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C134">
-        <v>298</v>
+        <v>507</v>
       </c>
       <c r="D134">
         <v>5</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>998000</v>
+        <v>1950000</v>
       </c>
       <c r="B135" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C135">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>1290000</v>
+        <v>499000</v>
       </c>
       <c r="B136" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C136">
-        <v>507</v>
+        <v>219</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>198000</v>
+        <v>449500</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C137">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -3176,16 +3179,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>168500</v>
+        <v>898000</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C138">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="D138">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -3193,13 +3196,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>620000</v>
+        <v>600000</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C139">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -3210,13 +3213,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>600000</v>
+        <v>620000</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C140">
-        <v>359</v>
+        <v>247</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -3227,84 +3230,84 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>600000</v>
+        <v>998000</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C141">
-        <v>240</v>
+        <v>391</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>499000</v>
+        <v>265000</v>
       </c>
       <c r="B142" t="s">
         <v>125</v>
       </c>
       <c r="C142">
-        <v>219</v>
+        <v>504</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>449500</v>
+        <v>123000</v>
       </c>
       <c r="B143" t="s">
         <v>126</v>
       </c>
       <c r="C143">
+        <v>100</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
         <v>1</v>
-      </c>
-      <c r="D143">
-        <v>4</v>
-      </c>
-      <c r="E143">
-        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>123000</v>
+        <v>600000</v>
       </c>
       <c r="B144" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C144">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>265000</v>
+        <v>1050000</v>
       </c>
       <c r="B145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -3312,16 +3315,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>195000</v>
+        <v>350000</v>
       </c>
       <c r="B146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="D146">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E146">
         <v>3</v>
@@ -3329,13 +3332,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>178000</v>
+        <v>730000</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C147">
-        <v>160</v>
+        <v>425</v>
       </c>
       <c r="D147">
         <v>5</v>
@@ -3345,11 +3348,14 @@
       </c>
     </row>
     <row r="148" spans="1:5">
+      <c r="A148">
+        <v>560000</v>
+      </c>
       <c r="B148" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C148">
-        <v>800</v>
+        <v>168</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -3360,13 +3366,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>730000</v>
+        <v>135000</v>
       </c>
       <c r="B149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C149">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="D149">
         <v>4</v>
@@ -3377,32 +3383,44 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>560000</v>
+        <v>417000</v>
       </c>
       <c r="B150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C150">
-        <v>168</v>
+        <v>300</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>475000</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>3800000</v>
+        <v>475000</v>
       </c>
       <c r="B152" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3411,69 +3429,66 @@
         <v>4</v>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>560000</v>
+        <v>1150000</v>
       </c>
       <c r="B153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C153">
-        <v>310</v>
+        <v>602</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>580000</v>
+        <v>2300000</v>
       </c>
       <c r="B154" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>2300000</v>
+        <v>178000</v>
       </c>
       <c r="B155" t="s">
         <v>137</v>
       </c>
       <c r="C155">
-        <v>505</v>
+        <v>160</v>
       </c>
       <c r="D155">
         <v>4</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156">
-        <v>1350000</v>
-      </c>
       <c r="B156" t="s">
         <v>138</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D156">
         <v>4</v>
@@ -3484,50 +3499,50 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>1150000</v>
+        <v>650000</v>
       </c>
       <c r="B157" t="s">
         <v>139</v>
       </c>
       <c r="C157">
-        <v>602</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>135000</v>
+        <v>1350000</v>
       </c>
       <c r="B158" t="s">
         <v>140</v>
       </c>
       <c r="C158">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>800000</v>
+        <v>560000</v>
       </c>
       <c r="B159" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C159">
-        <v>461</v>
+        <v>352</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -3535,10 +3550,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>650000</v>
+        <v>315000</v>
       </c>
       <c r="B160" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C160">
         <v>628</v>
@@ -3547,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3555,16 +3570,16 @@
         <v>900000</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C161">
         <v>367</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3572,30 +3587,30 @@
         <v>750000</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C162">
-        <v>383</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>670000</v>
+        <v>3800000</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C163">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163">
         <v>4</v>
@@ -3603,10 +3618,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>180</v>
+        <v>670000</v>
       </c>
       <c r="B164" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3615,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3623,16 +3638,16 @@
         <v>1697000</v>
       </c>
       <c r="B165" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C165">
         <v>318</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3640,10 +3655,10 @@
         <v>950000</v>
       </c>
       <c r="B166" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C166">
-        <v>410</v>
+        <v>630</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -3654,47 +3669,47 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>449000</v>
+        <v>1180000</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C167">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>1180000</v>
+        <v>900000</v>
       </c>
       <c r="B168" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C168">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D168">
         <v>6</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>300000</v>
+        <v>1190000</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C169">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -3705,132 +3720,132 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>900000</v>
+        <v>650000</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C170">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>1190000</v>
+        <v>1389000</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C171">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>524000</v>
+        <v>300000</v>
       </c>
       <c r="B172" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C172">
-        <v>540</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>650000</v>
+        <v>890000</v>
       </c>
       <c r="B173" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C173">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E173">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>1389000</v>
+        <v>3112840</v>
       </c>
       <c r="B174" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E174">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="B175" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C175">
-        <v>600</v>
+        <v>347</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>890000</v>
+        <v>850000</v>
       </c>
       <c r="B176" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C176">
-        <v>300</v>
+        <v>723</v>
       </c>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>1850000</v>
+        <v>1090000</v>
       </c>
       <c r="B177" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C177">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="D177">
         <v>4</v>
@@ -3841,70 +3856,58 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>417000</v>
+        <v>3800000</v>
       </c>
       <c r="B178" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C178">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>270000</v>
+        <v>1850000</v>
       </c>
       <c r="B179" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C179">
-        <v>310</v>
+        <v>463</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>330000</v>
+        <v>524000</v>
       </c>
       <c r="B180" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
-      <c r="D180">
-        <v>6</v>
-      </c>
-      <c r="E180">
-        <v>4</v>
-      </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>490000</v>
+        <v>314000</v>
       </c>
       <c r="B181" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C181">
         <v>0</v>
-      </c>
-      <c r="D181">
-        <v>3</v>
-      </c>
-      <c r="E181">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
